--- a/MatricesAHP/AHP Versión Final.xlsx
+++ b/MatricesAHP/AHP Versión Final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rikig\OneDrive\Escritorio\Proyecto de Título\Mesa 5\Metodos Multicriterios\AHP\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{365A0D51-1AC3-485D-BD2C-C3FF56763B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E053C973-1882-4FF1-A038-9D3DC60E6D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{9665085C-535A-4940-A345-C859AA46C31E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{9665085C-535A-4940-A345-C859AA46C31E}"/>
   </bookViews>
   <sheets>
     <sheet name="Inicio" sheetId="3" r:id="rId1"/>
@@ -2401,8 +2401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA9D047-9FE6-49DB-83AC-5DC90F9F0A76}">
   <dimension ref="B1:Q49"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="158" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView topLeftCell="A17" zoomScale="64" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -3172,7 +3172,7 @@
       </c>
       <c r="E34" s="28">
         <f>'C. Eco.'!AG4</f>
-        <v>5.9636024100556781E-2</v>
+        <v>6.9091048926309559E-2</v>
       </c>
       <c r="F34" s="28">
         <f>'C. So.'!AG4</f>
@@ -3188,7 +3188,7 @@
       </c>
       <c r="I34" s="88">
         <f>SUMPRODUCT(D34:H34,$D$49:$H$49)</f>
-        <v>5.1820586990585796E-2</v>
+        <v>5.3711591955736354E-2</v>
       </c>
       <c r="K34" s="66"/>
       <c r="L34" s="66"/>
@@ -3207,7 +3207,7 @@
       </c>
       <c r="E35" s="26">
         <f>'C. Eco.'!AG5</f>
-        <v>5.9636024100556781E-2</v>
+        <v>6.9091048926309559E-2</v>
       </c>
       <c r="F35" s="26">
         <f>'C. So.'!AG5</f>
@@ -3223,7 +3223,7 @@
       </c>
       <c r="I35" s="88">
         <f t="shared" ref="I35:I48" si="10">SUMPRODUCT(D35:H35,$D$49:$H$49)</f>
-        <v>5.4139500973138605E-2</v>
+        <v>5.6030505938289156E-2</v>
       </c>
       <c r="K35" s="61"/>
     </row>
@@ -3238,7 +3238,7 @@
       </c>
       <c r="E36" s="26">
         <f>'C. Eco.'!AG6</f>
-        <v>0.15602384876617359</v>
+        <v>0.14315541663403128</v>
       </c>
       <c r="F36" s="26">
         <f>'C. So.'!AG6</f>
@@ -3254,7 +3254,7 @@
       </c>
       <c r="I36" s="88">
         <f t="shared" si="10"/>
-        <v>5.7337255787095635E-2</v>
+        <v>5.4763569360667175E-2</v>
       </c>
       <c r="K36" s="61"/>
     </row>
@@ -3269,7 +3269,7 @@
       </c>
       <c r="E37" s="26">
         <f>'C. Eco.'!AG7</f>
-        <v>5.9636024100556781E-2</v>
+        <v>6.9091048926309559E-2</v>
       </c>
       <c r="F37" s="26">
         <f>'C. So.'!AG7</f>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="I37" s="88">
         <f t="shared" si="10"/>
-        <v>8.5308080084813789E-2</v>
+        <v>8.7199085049964348E-2</v>
       </c>
       <c r="K37" s="61"/>
     </row>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="E38" s="26">
         <f>'C. Eco.'!AG8</f>
-        <v>0.15602384876617359</v>
+        <v>0.14315541663403128</v>
       </c>
       <c r="F38" s="26">
         <f>'C. So.'!AG8</f>
@@ -3316,7 +3316,7 @@
       </c>
       <c r="I38" s="88">
         <f t="shared" si="10"/>
-        <v>6.0151493574182022E-2</v>
+        <v>5.7577807147753561E-2</v>
       </c>
       <c r="K38" s="61"/>
     </row>
@@ -3331,7 +3331,7 @@
       </c>
       <c r="E39" s="26">
         <f>'C. Eco.'!AG9</f>
-        <v>0.15602384876617359</v>
+        <v>0.14315541663403128</v>
       </c>
       <c r="F39" s="26">
         <f>'C. So.'!AG9</f>
@@ -3347,7 +3347,7 @@
       </c>
       <c r="I39" s="88">
         <f t="shared" si="10"/>
-        <v>6.3594836629135787E-2</v>
+        <v>6.1021150202707333E-2</v>
       </c>
       <c r="K39" s="61"/>
     </row>
@@ -3362,7 +3362,7 @@
       </c>
       <c r="E40" s="26">
         <f>'C. Eco.'!AG10</f>
-        <v>1.4809667406767832E-2</v>
+        <v>1.527907445699217E-2</v>
       </c>
       <c r="F40" s="26">
         <f>'C. So.'!AG10</f>
@@ -3378,7 +3378,7 @@
       </c>
       <c r="I40" s="88">
         <f>SUMPRODUCT(D40:H40,$D$49:$H$49)</f>
-        <v>8.8109267551461035E-2</v>
+        <v>8.8203148961505884E-2</v>
       </c>
     </row>
     <row r="41" spans="2:17" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -3392,7 +3392,7 @@
       </c>
       <c r="E41" s="26">
         <f>'C. Eco.'!AG11</f>
-        <v>1.4809667406767832E-2</v>
+        <v>1.527907445699217E-2</v>
       </c>
       <c r="F41" s="26">
         <f>'C. So.'!AG11</f>
@@ -3408,7 +3408,7 @@
       </c>
       <c r="I41" s="88">
         <f t="shared" si="10"/>
-        <v>2.7656593525167531E-2</v>
+        <v>2.7750474935212401E-2</v>
       </c>
     </row>
     <row r="42" spans="2:17" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -3422,7 +3422,7 @@
       </c>
       <c r="E42" s="26">
         <f>'C. Eco.'!AG12</f>
-        <v>5.9636024100556781E-2</v>
+        <v>6.9091048926309559E-2</v>
       </c>
       <c r="F42" s="26">
         <f>'C. So.'!AG12</f>
@@ -3438,7 +3438,7 @@
       </c>
       <c r="I42" s="88">
         <f t="shared" si="10"/>
-        <v>6.0709170454201794E-2</v>
+        <v>6.2600175419352339E-2</v>
       </c>
     </row>
     <row r="43" spans="2:17" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -3452,7 +3452,7 @@
       </c>
       <c r="E43" s="26">
         <f>'C. Eco.'!AG13</f>
-        <v>5.9636024100556781E-2</v>
+        <v>7.0623615976117993E-2</v>
       </c>
       <c r="F43" s="26">
         <f>'C. So.'!AG13</f>
@@ -3468,7 +3468,7 @@
       </c>
       <c r="I43" s="88">
         <f t="shared" si="10"/>
-        <v>0.10972433568833276</v>
+        <v>0.11192185406344499</v>
       </c>
     </row>
     <row r="44" spans="2:17" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -3482,7 +3482,7 @@
       </c>
       <c r="E44" s="26">
         <f>'C. Eco.'!AG14</f>
-        <v>9.2429074027251916E-3</v>
+        <v>9.399652790572784E-3</v>
       </c>
       <c r="F44" s="26">
         <f>'C. So.'!AG14</f>
@@ -3498,7 +3498,7 @@
       </c>
       <c r="I44" s="88">
         <f t="shared" si="10"/>
-        <v>0.11443742607848137</v>
+        <v>0.11446877515605086</v>
       </c>
     </row>
     <row r="45" spans="2:17" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -3512,7 +3512,7 @@
       </c>
       <c r="E45" s="26">
         <f>'C. Eco.'!AG15</f>
-        <v>0.15602384876617359</v>
+        <v>0.14315541663403128</v>
       </c>
       <c r="F45" s="26">
         <f>'C. So.'!AG15</f>
@@ -3528,7 +3528,7 @@
       </c>
       <c r="I45" s="88">
         <f t="shared" si="10"/>
-        <v>6.0002016443603375E-2</v>
+        <v>5.7428330017174914E-2</v>
       </c>
     </row>
     <row r="46" spans="2:17" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -3542,7 +3542,7 @@
       </c>
       <c r="E46" s="26">
         <f>'C. Eco.'!AG16</f>
-        <v>9.2429074027251916E-3</v>
+        <v>9.8745711639773529E-3</v>
       </c>
       <c r="F46" s="26">
         <f>'C. So.'!AG16</f>
@@ -3558,7 +3558,7 @@
       </c>
       <c r="I46" s="88">
         <f t="shared" si="10"/>
-        <v>6.1289731206670577E-2</v>
+        <v>6.1416063958921005E-2</v>
       </c>
     </row>
     <row r="47" spans="2:17" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -3572,7 +3572,7 @@
       </c>
       <c r="E47" s="26">
         <f>'C. Eco.'!AG17</f>
-        <v>1.4809667406767832E-2</v>
+        <v>1.527907445699217E-2</v>
       </c>
       <c r="F47" s="26">
         <f>'C. So.'!AG17</f>
@@ -3588,7 +3588,7 @@
       </c>
       <c r="I47" s="88">
         <f t="shared" si="10"/>
-        <v>6.182752382408753E-2</v>
+        <v>6.19214052341324E-2</v>
       </c>
     </row>
     <row r="48" spans="2:17" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -3602,7 +3602,7 @@
       </c>
       <c r="E48" s="30">
         <f>'C. Eco.'!AG18</f>
-        <v>1.4809667406767832E-2</v>
+        <v>1.527907445699217E-2</v>
       </c>
       <c r="F48" s="30">
         <f>'C. So.'!AG18</f>
@@ -3618,7 +3618,7 @@
       </c>
       <c r="I48" s="89">
         <f t="shared" si="10"/>
-        <v>4.3892181189042562E-2</v>
+        <v>4.3986062599087425E-2</v>
       </c>
     </row>
     <row r="49" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -6191,7 +6191,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E5BC64-B257-4A23-94FD-C0E8A60073C5}">
   <dimension ref="A1:AP39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="139" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="44" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C4" sqref="C4:Q18"/>
     </sheetView>
   </sheetViews>
@@ -6200,7 +6200,7 @@
     <col min="1" max="1" width="10.90625" style="44"/>
     <col min="2" max="2" width="25.08984375" style="44" customWidth="1"/>
     <col min="3" max="3" width="10.6328125" style="44" customWidth="1"/>
-    <col min="4" max="4" width="15" style="44" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.36328125" style="44" bestFit="1" customWidth="1"/>
     <col min="5" max="11" width="10.6328125" style="44" customWidth="1"/>
     <col min="12" max="17" width="10.90625" style="44"/>
     <col min="18" max="32" width="7.81640625" style="44" customWidth="1"/>
@@ -6373,7 +6373,7 @@
       </c>
       <c r="AP3" s="39">
         <f>(AK4-AL4)/(AL4-1)</f>
-        <v>0.10950818575217447</v>
+        <v>5.8810545283231139E-2</v>
       </c>
     </row>
     <row r="4" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6396,19 +6396,19 @@
         <v>1</v>
       </c>
       <c r="E4" s="67">
-        <v>0.2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F4" s="67">
         <v>1</v>
       </c>
       <c r="G4" s="67">
-        <v>0.2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H4" s="67">
-        <v>0.2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I4" s="67">
-        <f t="shared" ref="I4:Q4" si="0">IF(L24&lt;0,"r",
+        <f t="shared" ref="D4:Q4" si="0">IF(L24&lt;0,"r",
 IF(L24=0,1,
 IF(AND(L24&gt;=1,L24&lt;=1.25),1,
 IF(AND(L24&gt;1.25,L24&lt;=1.5),3,
@@ -6433,11 +6433,11 @@
         <v>9</v>
       </c>
       <c r="N4" s="67">
-        <v>0.2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="O4" s="67">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P4" s="67">
         <f t="shared" si="0"/>
@@ -6449,27 +6449,27 @@
       </c>
       <c r="R4" s="36">
         <f>C4/C$19</f>
-        <v>3.8769230769230771E-2</v>
+        <v>5.609973285841497E-2</v>
       </c>
       <c r="S4" s="25">
         <f t="shared" ref="S4:AF4" si="1">D4/D$19</f>
-        <v>3.8769230769230771E-2</v>
+        <v>5.609973285841497E-2</v>
       </c>
       <c r="T4" s="25">
         <f t="shared" si="1"/>
-        <v>3.5294117647058837E-2</v>
+        <v>5.2631578947368446E-2</v>
       </c>
       <c r="U4" s="25">
         <f t="shared" si="1"/>
-        <v>3.8769230769230771E-2</v>
+        <v>5.609973285841497E-2</v>
       </c>
       <c r="V4" s="25">
         <f t="shared" si="1"/>
-        <v>3.5294117647058837E-2</v>
+        <v>5.2631578947368446E-2</v>
       </c>
       <c r="W4" s="25">
         <f t="shared" si="1"/>
-        <v>3.5294117647058837E-2</v>
+        <v>5.2631578947368446E-2</v>
       </c>
       <c r="X4" s="25">
         <f t="shared" si="1"/>
@@ -6481,11 +6481,11 @@
       </c>
       <c r="Z4" s="25">
         <f t="shared" si="1"/>
-        <v>3.8769230769230771E-2</v>
+        <v>5.609973285841497E-2</v>
       </c>
       <c r="AA4" s="25">
         <f t="shared" si="1"/>
-        <v>3.8769230769230771E-2</v>
+        <v>5.619982158786798E-2</v>
       </c>
       <c r="AB4" s="25">
         <f t="shared" si="1"/>
@@ -6493,11 +6493,11 @@
       </c>
       <c r="AC4" s="25">
         <f t="shared" si="1"/>
-        <v>3.5294117647058837E-2</v>
+        <v>5.2631578947368446E-2</v>
       </c>
       <c r="AD4" s="25">
         <f t="shared" si="1"/>
-        <v>9.4736842105263161E-2</v>
+        <v>8.0459770114942528E-2</v>
       </c>
       <c r="AE4" s="25">
         <f t="shared" si="1"/>
@@ -6509,20 +6509,20 @@
       </c>
       <c r="AG4" s="39">
         <f>AVERAGE(R4:AF4)</f>
-        <v>5.9636024100556781E-2</v>
+        <v>6.9091048926309559E-2</v>
       </c>
       <c r="AH4" s="1"/>
       <c r="AI4" s="96">
         <f>SUMPRODUCT(C4:Q4,$C$20:$Q$20)</f>
-        <v>1.0040422201542756</v>
+        <v>1.1193946585855086</v>
       </c>
       <c r="AJ4" s="97">
         <f>AI4/AG4</f>
-        <v>16.836169669213437</v>
+        <v>16.201732004089578</v>
       </c>
       <c r="AK4" s="98">
         <f>AVERAGE(AJ4:AJ18)</f>
-        <v>16.533114600530443</v>
+        <v>15.823347633965236</v>
       </c>
       <c r="AL4" s="98">
         <v>15</v>
@@ -6537,7 +6537,7 @@
       </c>
       <c r="AP4" s="34">
         <f>AP3/AM4</f>
-        <v>6.769001593460941E-2</v>
+        <v>3.6352412561687766E-2</v>
       </c>
     </row>
     <row r="5" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6546,7 +6546,7 @@
         <v>29</v>
       </c>
       <c r="C5" s="67">
-        <f t="shared" ref="C5:C15" si="2">IF(F25&lt;0,"r",
+        <f t="shared" ref="C5:C18" si="2">IF(F25&lt;0,"r",
 IF(F25=0,1,
 IF(AND(F25&gt;=1,F25&lt;=1.25),1,
 IF(AND(F25&gt;1.25,F25&lt;=1.5),3,
@@ -6557,7 +6557,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="67">
-        <f t="shared" ref="D5:D15" si="3">IF(G25&lt;0,"r",
+        <f t="shared" ref="D5:D18" si="3">IF(G25&lt;0,"r",
 IF(G25=0,1,
 IF(AND(G25&gt;=1,G25&lt;=1.25),1,
 IF(AND(G25&gt;1.25,G25&lt;=1.5),3,
@@ -6568,10 +6568,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="67">
-        <v>0.2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F5" s="67">
-        <f t="shared" ref="F5:F15" si="4">IF(I25&lt;0,"r",
+        <f t="shared" ref="F5:F18" si="4">IF(I25&lt;0,"r",
 IF(I25=0,1,
 IF(AND(I25&gt;=1,I25&lt;=1.25),1,
 IF(AND(I25&gt;1.25,I25&lt;=1.5),3,
@@ -6582,13 +6582,13 @@
         <v>1</v>
       </c>
       <c r="G5" s="67">
-        <v>0.2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H5" s="67">
-        <v>0.2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I5" s="67">
-        <f t="shared" ref="I5:I15" si="5">IF(L25&lt;0,"r",
+        <f t="shared" ref="I5:I18" si="5">IF(L25&lt;0,"r",
 IF(L25=0,1,
 IF(AND(L25&gt;=1,L25&lt;=1.25),1,
 IF(AND(L25&gt;1.25,L25&lt;=1.5),3,
@@ -6610,7 +6610,7 @@
         <v>7</v>
       </c>
       <c r="K5" s="67">
-        <f t="shared" ref="K5:K15" si="7">IF(N25&lt;0,"r",
+        <f t="shared" ref="K5:K18" si="7">IF(N25&lt;0,"r",
 IF(N25=0,1,
 IF(AND(N25&gt;=1,N25&lt;=1.25),1,
 IF(AND(N25&gt;1.25,N25&lt;=1.5),3,
@@ -6635,7 +6635,7 @@
         <v>9</v>
       </c>
       <c r="N5" s="67">
-        <v>0.2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="O5" s="67">
         <f t="shared" ref="O5:O18" si="9">IF(R25&lt;0,"r",
@@ -6646,7 +6646,7 @@
 IF(AND(R25&gt;2,R25&lt;=3),7,
 IF(R25&gt;3,9,
 "")))))))</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P5" s="67">
         <f t="shared" ref="P5:P18" si="10">IF(S25&lt;0,"r",
@@ -6672,27 +6672,27 @@
       </c>
       <c r="R5" s="36">
         <f t="shared" ref="R5:R18" si="12">C5/C$19</f>
-        <v>3.8769230769230771E-2</v>
+        <v>5.609973285841497E-2</v>
       </c>
       <c r="S5" s="25">
         <f t="shared" ref="S5:S18" si="13">D5/D$19</f>
-        <v>3.8769230769230771E-2</v>
+        <v>5.609973285841497E-2</v>
       </c>
       <c r="T5" s="25">
         <f t="shared" ref="T5:T18" si="14">E5/E$19</f>
-        <v>3.5294117647058837E-2</v>
+        <v>5.2631578947368446E-2</v>
       </c>
       <c r="U5" s="25">
         <f t="shared" ref="U5:U18" si="15">F5/F$19</f>
-        <v>3.8769230769230771E-2</v>
+        <v>5.609973285841497E-2</v>
       </c>
       <c r="V5" s="25">
         <f t="shared" ref="V5:V18" si="16">G5/G$19</f>
-        <v>3.5294117647058837E-2</v>
+        <v>5.2631578947368446E-2</v>
       </c>
       <c r="W5" s="25">
         <f t="shared" ref="W5:W18" si="17">H5/H$19</f>
-        <v>3.5294117647058837E-2</v>
+        <v>5.2631578947368446E-2</v>
       </c>
       <c r="X5" s="25">
         <f t="shared" ref="X5:X18" si="18">I5/I$19</f>
@@ -6704,11 +6704,11 @@
       </c>
       <c r="Z5" s="25">
         <f t="shared" ref="Z5:Z18" si="20">K5/K$19</f>
-        <v>3.8769230769230771E-2</v>
+        <v>5.609973285841497E-2</v>
       </c>
       <c r="AA5" s="25">
         <f t="shared" ref="AA5:AA18" si="21">L5/L$19</f>
-        <v>3.8769230769230771E-2</v>
+        <v>5.619982158786798E-2</v>
       </c>
       <c r="AB5" s="25">
         <f t="shared" ref="AB5:AB18" si="22">M5/M$19</f>
@@ -6716,11 +6716,11 @@
       </c>
       <c r="AC5" s="25">
         <f t="shared" ref="AC5:AC18" si="23">N5/N$19</f>
-        <v>3.5294117647058837E-2</v>
+        <v>5.2631578947368446E-2</v>
       </c>
       <c r="AD5" s="25">
         <f t="shared" ref="AD5:AD18" si="24">O5/O$19</f>
-        <v>9.4736842105263161E-2</v>
+        <v>8.0459770114942528E-2</v>
       </c>
       <c r="AE5" s="25">
         <f t="shared" ref="AE5:AE18" si="25">P5/P$19</f>
@@ -6732,16 +6732,16 @@
       </c>
       <c r="AG5" s="39">
         <f t="shared" ref="AG5:AG18" si="27">AVERAGE(R5:AF5)</f>
-        <v>5.9636024100556781E-2</v>
+        <v>6.9091048926309559E-2</v>
       </c>
       <c r="AH5" s="1"/>
       <c r="AI5" s="96">
         <f t="shared" ref="AI5:AI18" si="28">SUMPRODUCT(C5:Q5,$C$20:$Q$20)</f>
-        <v>1.0040422201542756</v>
+        <v>1.1193946585855086</v>
       </c>
       <c r="AJ5" s="97">
         <f>AI5/AG5</f>
-        <v>16.836169669213437</v>
+        <v>16.201732004089578</v>
       </c>
       <c r="AK5" s="35"/>
       <c r="AL5" s="35"/>
@@ -6757,14 +6757,14 @@
       </c>
       <c r="C6" s="67">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" s="67">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E6" s="67">
-        <f t="shared" ref="E6:E15" si="29">IF(H26&lt;0,"r",
+        <f t="shared" ref="E5:E18" si="29">IF(H26&lt;0,"r",
 IF(H26=0,1,
 IF(AND(H26&gt;=1,H26&lt;=1.25),1,
 IF(AND(H26&gt;1.25,H26&lt;=1.5),3,
@@ -6776,7 +6776,7 @@
       </c>
       <c r="F6" s="67">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G6" s="67">
         <v>1</v>
@@ -6794,10 +6794,10 @@
       </c>
       <c r="K6" s="67">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L6" s="67">
-        <f t="shared" ref="L6:L15" si="30">IF(O26&lt;0,"r",
+        <f t="shared" ref="L5:L18" si="30">IF(O26&lt;0,"r",
 IF(O26=0,1,
 IF(AND(O26&gt;=1,O26&lt;=1.25),1,
 IF(AND(O26&gt;1.25,O26&lt;=1.5),3,
@@ -6805,7 +6805,7 @@
 IF(AND(O26&gt;2,O26&lt;=3),7,
 IF(O26&gt;3,9,
 "")))))))</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M6" s="67">
         <f t="shared" si="8"/>
@@ -6828,27 +6828,27 @@
       </c>
       <c r="R6" s="36">
         <f t="shared" si="12"/>
-        <v>0.19384615384615386</v>
+        <v>0.16829919857524492</v>
       </c>
       <c r="S6" s="25">
         <f t="shared" si="13"/>
-        <v>0.19384615384615386</v>
+        <v>0.16829919857524492</v>
       </c>
       <c r="T6" s="25">
         <f t="shared" si="14"/>
-        <v>0.17647058823529416</v>
+        <v>0.15789473684210534</v>
       </c>
       <c r="U6" s="25">
         <f t="shared" si="15"/>
-        <v>0.19384615384615386</v>
+        <v>0.16829919857524492</v>
       </c>
       <c r="V6" s="25">
         <f t="shared" si="16"/>
-        <v>0.17647058823529416</v>
+        <v>0.15789473684210534</v>
       </c>
       <c r="W6" s="25">
         <f t="shared" si="17"/>
-        <v>0.17647058823529416</v>
+        <v>0.15789473684210534</v>
       </c>
       <c r="X6" s="25">
         <f t="shared" si="18"/>
@@ -6860,11 +6860,11 @@
       </c>
       <c r="Z6" s="25">
         <f t="shared" si="20"/>
-        <v>0.19384615384615386</v>
+        <v>0.16829919857524492</v>
       </c>
       <c r="AA6" s="25">
         <f t="shared" si="21"/>
-        <v>0.19384615384615386</v>
+        <v>0.16859946476360396</v>
       </c>
       <c r="AB6" s="25">
         <f t="shared" si="22"/>
@@ -6872,11 +6872,11 @@
       </c>
       <c r="AC6" s="25">
         <f t="shared" si="23"/>
-        <v>0.17647058823529416</v>
+        <v>0.15789473684210534</v>
       </c>
       <c r="AD6" s="25">
         <f t="shared" si="24"/>
-        <v>9.4736842105263161E-2</v>
+        <v>0.10344827586206896</v>
       </c>
       <c r="AE6" s="25">
         <f t="shared" si="25"/>
@@ -6888,16 +6888,16 @@
       </c>
       <c r="AG6" s="39">
         <f t="shared" si="27"/>
-        <v>0.15602384876617359</v>
+        <v>0.14315541663403128</v>
       </c>
       <c r="AH6" s="1"/>
       <c r="AI6" s="96">
         <f t="shared" si="28"/>
-        <v>2.8145163574713092</v>
+        <v>2.3370997976228631</v>
       </c>
       <c r="AJ6" s="97">
         <f t="shared" ref="AJ6:AJ18" si="31">AI6/AG6</f>
-        <v>18.039013777241884</v>
+        <v>16.32561206955603</v>
       </c>
       <c r="AK6" s="90"/>
       <c r="AL6" s="90"/>
@@ -6919,17 +6919,17 @@
         <v>1</v>
       </c>
       <c r="E7" s="67">
-        <v>0.2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F7" s="67">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G7" s="67">
-        <v>0.2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H7" s="67">
-        <v>0.2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I7" s="67">
         <f t="shared" si="5"/>
@@ -6951,11 +6951,11 @@
         <v>9</v>
       </c>
       <c r="N7" s="67">
-        <v>0.2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="O7" s="67">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P7" s="67">
         <f t="shared" si="10"/>
@@ -6967,27 +6967,27 @@
       </c>
       <c r="R7" s="36">
         <f t="shared" si="12"/>
-        <v>3.8769230769230771E-2</v>
+        <v>5.609973285841497E-2</v>
       </c>
       <c r="S7" s="25">
         <f t="shared" si="13"/>
-        <v>3.8769230769230771E-2</v>
+        <v>5.609973285841497E-2</v>
       </c>
       <c r="T7" s="25">
         <f t="shared" si="14"/>
-        <v>3.5294117647058837E-2</v>
+        <v>5.2631578947368446E-2</v>
       </c>
       <c r="U7" s="25">
         <f t="shared" si="15"/>
-        <v>3.8769230769230771E-2</v>
+        <v>5.609973285841497E-2</v>
       </c>
       <c r="V7" s="25">
         <f t="shared" si="16"/>
-        <v>3.5294117647058837E-2</v>
+        <v>5.2631578947368446E-2</v>
       </c>
       <c r="W7" s="25">
         <f t="shared" si="17"/>
-        <v>3.5294117647058837E-2</v>
+        <v>5.2631578947368446E-2</v>
       </c>
       <c r="X7" s="25">
         <f t="shared" si="18"/>
@@ -6999,11 +6999,11 @@
       </c>
       <c r="Z7" s="25">
         <f t="shared" si="20"/>
-        <v>3.8769230769230771E-2</v>
+        <v>5.609973285841497E-2</v>
       </c>
       <c r="AA7" s="25">
         <f t="shared" si="21"/>
-        <v>3.8769230769230771E-2</v>
+        <v>5.619982158786798E-2</v>
       </c>
       <c r="AB7" s="25">
         <f t="shared" si="22"/>
@@ -7011,11 +7011,11 @@
       </c>
       <c r="AC7" s="25">
         <f t="shared" si="23"/>
-        <v>3.5294117647058837E-2</v>
+        <v>5.2631578947368446E-2</v>
       </c>
       <c r="AD7" s="25">
         <f t="shared" si="24"/>
-        <v>9.4736842105263161E-2</v>
+        <v>8.0459770114942528E-2</v>
       </c>
       <c r="AE7" s="25">
         <f t="shared" si="25"/>
@@ -7027,16 +7027,16 @@
       </c>
       <c r="AG7" s="39">
         <f t="shared" si="27"/>
-        <v>5.9636024100556781E-2</v>
+        <v>6.9091048926309559E-2</v>
       </c>
       <c r="AH7" s="1"/>
       <c r="AI7" s="96">
         <f t="shared" si="28"/>
-        <v>1.0040422201542756</v>
+        <v>1.1193946585855086</v>
       </c>
       <c r="AJ7" s="97">
         <f t="shared" si="31"/>
-        <v>16.836169669213437</v>
+        <v>16.201732004089578</v>
       </c>
       <c r="AK7" s="90"/>
       <c r="AL7" s="90"/>
@@ -7052,11 +7052,11 @@
       </c>
       <c r="C8" s="67">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" s="67">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E8" s="67">
         <f t="shared" si="29"/>
@@ -7064,10 +7064,10 @@
       </c>
       <c r="F8" s="67">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G8" s="67">
-        <f t="shared" ref="G8" si="32">IF(J28&lt;0,"r",
+        <f t="shared" ref="G5:G18" si="32">IF(J28&lt;0,"r",
 IF(J28=0,1,
 IF(AND(J28&gt;=1,J28&lt;=1.25),1,
 IF(AND(J28&gt;1.25,J28&lt;=1.5),3,
@@ -7078,7 +7078,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="67">
-        <f t="shared" ref="H8:H15" si="33">IF(K28&lt;0,"r",
+        <f t="shared" ref="H5:H18" si="33">IF(K28&lt;0,"r",
 IF(K28=0,1,
 IF(AND(K28&gt;=1,K28&lt;=1.25),1,
 IF(AND(K28&gt;1.25,K28&lt;=1.5),3,
@@ -7098,18 +7098,18 @@
       </c>
       <c r="K8" s="67">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L8" s="67">
         <f t="shared" si="30"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M8" s="67">
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="N8" s="67">
-        <f t="shared" ref="N8:N15" si="34">IF(Q28&lt;0,"r",
+        <f t="shared" ref="N5:N18" si="34">IF(Q28&lt;0,"r",
 IF(Q28=0,1,
 IF(AND(Q28&gt;=1,Q28&lt;=1.25),1,
 IF(AND(Q28&gt;1.25,Q28&lt;=1.5),3,
@@ -7133,27 +7133,27 @@
       </c>
       <c r="R8" s="36">
         <f t="shared" si="12"/>
-        <v>0.19384615384615386</v>
+        <v>0.16829919857524492</v>
       </c>
       <c r="S8" s="25">
         <f t="shared" si="13"/>
-        <v>0.19384615384615386</v>
+        <v>0.16829919857524492</v>
       </c>
       <c r="T8" s="25">
         <f t="shared" si="14"/>
-        <v>0.17647058823529416</v>
+        <v>0.15789473684210534</v>
       </c>
       <c r="U8" s="25">
         <f t="shared" si="15"/>
-        <v>0.19384615384615386</v>
+        <v>0.16829919857524492</v>
       </c>
       <c r="V8" s="25">
         <f t="shared" si="16"/>
-        <v>0.17647058823529416</v>
+        <v>0.15789473684210534</v>
       </c>
       <c r="W8" s="25">
         <f t="shared" si="17"/>
-        <v>0.17647058823529416</v>
+        <v>0.15789473684210534</v>
       </c>
       <c r="X8" s="25">
         <f t="shared" si="18"/>
@@ -7165,11 +7165,11 @@
       </c>
       <c r="Z8" s="25">
         <f t="shared" si="20"/>
-        <v>0.19384615384615386</v>
+        <v>0.16829919857524492</v>
       </c>
       <c r="AA8" s="25">
         <f t="shared" si="21"/>
-        <v>0.19384615384615386</v>
+        <v>0.16859946476360396</v>
       </c>
       <c r="AB8" s="25">
         <f t="shared" si="22"/>
@@ -7177,11 +7177,11 @@
       </c>
       <c r="AC8" s="25">
         <f t="shared" si="23"/>
-        <v>0.17647058823529416</v>
+        <v>0.15789473684210534</v>
       </c>
       <c r="AD8" s="25">
         <f t="shared" si="24"/>
-        <v>9.4736842105263161E-2</v>
+        <v>0.10344827586206896</v>
       </c>
       <c r="AE8" s="25">
         <f t="shared" si="25"/>
@@ -7193,16 +7193,16 @@
       </c>
       <c r="AG8" s="39">
         <f t="shared" si="27"/>
-        <v>0.15602384876617359</v>
+        <v>0.14315541663403128</v>
       </c>
       <c r="AH8" s="1"/>
       <c r="AI8" s="96">
         <f t="shared" si="28"/>
-        <v>2.8145163574713092</v>
+        <v>2.3370997976228631</v>
       </c>
       <c r="AJ8" s="97">
         <f t="shared" si="31"/>
-        <v>18.039013777241884</v>
+        <v>16.32561206955603</v>
       </c>
       <c r="AK8" s="90"/>
       <c r="AL8" s="90"/>
@@ -7218,11 +7218,11 @@
       </c>
       <c r="C9" s="67">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" s="67">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E9" s="67">
         <f t="shared" si="29"/>
@@ -7230,7 +7230,7 @@
       </c>
       <c r="F9" s="67">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G9" s="67">
         <v>1</v>
@@ -7249,11 +7249,11 @@
       </c>
       <c r="K9" s="67">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L9" s="67">
         <f t="shared" si="30"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M9" s="67">
         <f t="shared" si="8"/>
@@ -7276,27 +7276,27 @@
       </c>
       <c r="R9" s="36">
         <f t="shared" si="12"/>
-        <v>0.19384615384615386</v>
+        <v>0.16829919857524492</v>
       </c>
       <c r="S9" s="25">
         <f t="shared" si="13"/>
-        <v>0.19384615384615386</v>
+        <v>0.16829919857524492</v>
       </c>
       <c r="T9" s="25">
         <f t="shared" si="14"/>
-        <v>0.17647058823529416</v>
+        <v>0.15789473684210534</v>
       </c>
       <c r="U9" s="25">
         <f t="shared" si="15"/>
-        <v>0.19384615384615386</v>
+        <v>0.16829919857524492</v>
       </c>
       <c r="V9" s="25">
         <f t="shared" si="16"/>
-        <v>0.17647058823529416</v>
+        <v>0.15789473684210534</v>
       </c>
       <c r="W9" s="25">
         <f t="shared" si="17"/>
-        <v>0.17647058823529416</v>
+        <v>0.15789473684210534</v>
       </c>
       <c r="X9" s="25">
         <f t="shared" si="18"/>
@@ -7308,11 +7308,11 @@
       </c>
       <c r="Z9" s="25">
         <f t="shared" si="20"/>
-        <v>0.19384615384615386</v>
+        <v>0.16829919857524492</v>
       </c>
       <c r="AA9" s="25">
         <f t="shared" si="21"/>
-        <v>0.19384615384615386</v>
+        <v>0.16859946476360396</v>
       </c>
       <c r="AB9" s="25">
         <f t="shared" si="22"/>
@@ -7320,11 +7320,11 @@
       </c>
       <c r="AC9" s="25">
         <f t="shared" si="23"/>
-        <v>0.17647058823529416</v>
+        <v>0.15789473684210534</v>
       </c>
       <c r="AD9" s="25">
         <f t="shared" si="24"/>
-        <v>9.4736842105263161E-2</v>
+        <v>0.10344827586206896</v>
       </c>
       <c r="AE9" s="25">
         <f t="shared" si="25"/>
@@ -7336,16 +7336,16 @@
       </c>
       <c r="AG9" s="39">
         <f t="shared" si="27"/>
-        <v>0.15602384876617359</v>
+        <v>0.14315541663403128</v>
       </c>
       <c r="AH9" s="1"/>
       <c r="AI9" s="96">
         <f t="shared" si="28"/>
-        <v>2.8145163574713092</v>
+        <v>2.3370997976228631</v>
       </c>
       <c r="AJ9" s="97">
         <f t="shared" si="31"/>
-        <v>18.039013777241884</v>
+        <v>16.32561206955603</v>
       </c>
     </row>
     <row r="10" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7406,27 +7406,27 @@
       </c>
       <c r="R10" s="36">
         <f t="shared" si="12"/>
-        <v>5.538461538461539E-3</v>
+        <v>8.0142475512021381E-3</v>
       </c>
       <c r="S10" s="25">
         <f t="shared" si="13"/>
-        <v>5.538461538461539E-3</v>
+        <v>8.0142475512021381E-3</v>
       </c>
       <c r="T10" s="25">
         <f t="shared" si="14"/>
-        <v>1.9607843137254905E-2</v>
+        <v>1.7543859649122813E-2</v>
       </c>
       <c r="U10" s="25">
         <f t="shared" si="15"/>
-        <v>5.538461538461539E-3</v>
+        <v>8.0142475512021381E-3</v>
       </c>
       <c r="V10" s="25">
         <f t="shared" si="16"/>
-        <v>1.9607843137254905E-2</v>
+        <v>1.7543859649122813E-2</v>
       </c>
       <c r="W10" s="25">
         <f t="shared" si="17"/>
-        <v>1.9607843137254905E-2</v>
+        <v>1.7543859649122813E-2</v>
       </c>
       <c r="X10" s="25">
         <f t="shared" si="18"/>
@@ -7438,11 +7438,11 @@
       </c>
       <c r="Z10" s="25">
         <f t="shared" si="20"/>
-        <v>5.538461538461539E-3</v>
+        <v>8.0142475512021381E-3</v>
       </c>
       <c r="AA10" s="25">
         <f t="shared" si="21"/>
-        <v>5.538461538461539E-3</v>
+        <v>8.028545941123998E-3</v>
       </c>
       <c r="AB10" s="25">
         <f t="shared" si="22"/>
@@ -7450,11 +7450,11 @@
       </c>
       <c r="AC10" s="25">
         <f t="shared" si="23"/>
-        <v>1.9607843137254905E-2</v>
+        <v>1.7543859649122813E-2</v>
       </c>
       <c r="AD10" s="25">
         <f t="shared" si="24"/>
-        <v>3.1578947368421054E-2</v>
+        <v>3.4482758620689655E-2</v>
       </c>
       <c r="AE10" s="25">
         <f t="shared" si="25"/>
@@ -7466,16 +7466,16 @@
       </c>
       <c r="AG10" s="39">
         <f t="shared" si="27"/>
-        <v>1.4809667406767832E-2</v>
+        <v>1.527907445699217E-2</v>
       </c>
       <c r="AH10" s="1"/>
       <c r="AI10" s="96">
         <f t="shared" si="28"/>
-        <v>0.22663720690021477</v>
+        <v>0.23213328668979499</v>
       </c>
       <c r="AJ10" s="97">
         <f t="shared" si="31"/>
-        <v>15.303328607949995</v>
+        <v>15.192889290722956</v>
       </c>
     </row>
     <row r="11" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7534,27 +7534,27 @@
       </c>
       <c r="R11" s="36">
         <f t="shared" si="12"/>
-        <v>5.538461538461539E-3</v>
+        <v>8.0142475512021381E-3</v>
       </c>
       <c r="S11" s="25">
         <f t="shared" si="13"/>
-        <v>5.538461538461539E-3</v>
+        <v>8.0142475512021381E-3</v>
       </c>
       <c r="T11" s="25">
         <f t="shared" si="14"/>
-        <v>1.9607843137254905E-2</v>
+        <v>1.7543859649122813E-2</v>
       </c>
       <c r="U11" s="25">
         <f t="shared" si="15"/>
-        <v>5.538461538461539E-3</v>
+        <v>8.0142475512021381E-3</v>
       </c>
       <c r="V11" s="25">
         <f t="shared" si="16"/>
-        <v>1.9607843137254905E-2</v>
+        <v>1.7543859649122813E-2</v>
       </c>
       <c r="W11" s="25">
         <f t="shared" si="17"/>
-        <v>1.9607843137254905E-2</v>
+        <v>1.7543859649122813E-2</v>
       </c>
       <c r="X11" s="25">
         <f t="shared" si="18"/>
@@ -7566,11 +7566,11 @@
       </c>
       <c r="Z11" s="25">
         <f t="shared" si="20"/>
-        <v>5.538461538461539E-3</v>
+        <v>8.0142475512021381E-3</v>
       </c>
       <c r="AA11" s="25">
         <f t="shared" si="21"/>
-        <v>5.538461538461539E-3</v>
+        <v>8.028545941123998E-3</v>
       </c>
       <c r="AB11" s="25">
         <f t="shared" si="22"/>
@@ -7578,11 +7578,11 @@
       </c>
       <c r="AC11" s="25">
         <f t="shared" si="23"/>
-        <v>1.9607843137254905E-2</v>
+        <v>1.7543859649122813E-2</v>
       </c>
       <c r="AD11" s="25">
         <f t="shared" si="24"/>
-        <v>3.1578947368421054E-2</v>
+        <v>3.4482758620689655E-2</v>
       </c>
       <c r="AE11" s="25">
         <f t="shared" si="25"/>
@@ -7594,16 +7594,16 @@
       </c>
       <c r="AG11" s="39">
         <f t="shared" si="27"/>
-        <v>1.4809667406767832E-2</v>
+        <v>1.527907445699217E-2</v>
       </c>
       <c r="AH11" s="1"/>
       <c r="AI11" s="96">
         <f t="shared" si="28"/>
-        <v>0.22663720690021477</v>
+        <v>0.23213328668979499</v>
       </c>
       <c r="AJ11" s="97">
         <f t="shared" si="31"/>
-        <v>15.303328607949995</v>
+        <v>15.192889290722956</v>
       </c>
     </row>
     <row r="12" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7619,16 +7619,16 @@
         <v>1</v>
       </c>
       <c r="E12" s="67">
-        <v>0.2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F12" s="67">
         <v>1</v>
       </c>
       <c r="G12" s="67">
-        <v>0.2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H12" s="67">
-        <v>0.2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I12" s="67">
         <f t="shared" si="5"/>
@@ -7650,11 +7650,11 @@
         <v>9</v>
       </c>
       <c r="N12" s="67">
-        <v>0.2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="O12" s="67">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P12" s="67">
         <f t="shared" si="10"/>
@@ -7666,27 +7666,27 @@
       </c>
       <c r="R12" s="36">
         <f t="shared" si="12"/>
-        <v>3.8769230769230771E-2</v>
+        <v>5.609973285841497E-2</v>
       </c>
       <c r="S12" s="25">
         <f t="shared" si="13"/>
-        <v>3.8769230769230771E-2</v>
+        <v>5.609973285841497E-2</v>
       </c>
       <c r="T12" s="25">
         <f t="shared" si="14"/>
-        <v>3.5294117647058837E-2</v>
+        <v>5.2631578947368446E-2</v>
       </c>
       <c r="U12" s="25">
         <f t="shared" si="15"/>
-        <v>3.8769230769230771E-2</v>
+        <v>5.609973285841497E-2</v>
       </c>
       <c r="V12" s="25">
         <f t="shared" si="16"/>
-        <v>3.5294117647058837E-2</v>
+        <v>5.2631578947368446E-2</v>
       </c>
       <c r="W12" s="25">
         <f t="shared" si="17"/>
-        <v>3.5294117647058837E-2</v>
+        <v>5.2631578947368446E-2</v>
       </c>
       <c r="X12" s="25">
         <f t="shared" si="18"/>
@@ -7698,11 +7698,11 @@
       </c>
       <c r="Z12" s="25">
         <f t="shared" si="20"/>
-        <v>3.8769230769230771E-2</v>
+        <v>5.609973285841497E-2</v>
       </c>
       <c r="AA12" s="25">
         <f t="shared" si="21"/>
-        <v>3.8769230769230771E-2</v>
+        <v>5.619982158786798E-2</v>
       </c>
       <c r="AB12" s="25">
         <f t="shared" si="22"/>
@@ -7710,11 +7710,11 @@
       </c>
       <c r="AC12" s="25">
         <f t="shared" si="23"/>
-        <v>3.5294117647058837E-2</v>
+        <v>5.2631578947368446E-2</v>
       </c>
       <c r="AD12" s="25">
         <f t="shared" si="24"/>
-        <v>9.4736842105263161E-2</v>
+        <v>8.0459770114942528E-2</v>
       </c>
       <c r="AE12" s="25">
         <f t="shared" si="25"/>
@@ -7726,16 +7726,16 @@
       </c>
       <c r="AG12" s="39">
         <f t="shared" si="27"/>
-        <v>5.9636024100556781E-2</v>
+        <v>6.9091048926309559E-2</v>
       </c>
       <c r="AH12" s="1"/>
       <c r="AI12" s="96">
         <f t="shared" si="28"/>
-        <v>1.0040422201542756</v>
+        <v>1.1193946585855086</v>
       </c>
       <c r="AJ12" s="97">
         <f t="shared" si="31"/>
-        <v>16.836169669213437</v>
+        <v>16.201732004089578</v>
       </c>
     </row>
     <row r="13" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7752,17 +7752,17 @@
         <v>1</v>
       </c>
       <c r="E13" s="67">
-        <v>0.2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F13" s="67">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G13" s="67">
-        <v>0.2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H13" s="67">
-        <v>0.2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I13" s="67">
         <f t="shared" si="5"/>
@@ -7785,7 +7785,7 @@
         <v>9</v>
       </c>
       <c r="N13" s="67">
-        <v>0.2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="O13" s="67">
         <f t="shared" si="9"/>
@@ -7801,27 +7801,27 @@
       </c>
       <c r="R13" s="36">
         <f t="shared" si="12"/>
-        <v>3.8769230769230771E-2</v>
+        <v>5.609973285841497E-2</v>
       </c>
       <c r="S13" s="25">
         <f t="shared" si="13"/>
-        <v>3.8769230769230771E-2</v>
+        <v>5.609973285841497E-2</v>
       </c>
       <c r="T13" s="25">
         <f t="shared" si="14"/>
-        <v>3.5294117647058837E-2</v>
+        <v>5.2631578947368446E-2</v>
       </c>
       <c r="U13" s="25">
         <f t="shared" si="15"/>
-        <v>3.8769230769230771E-2</v>
+        <v>5.609973285841497E-2</v>
       </c>
       <c r="V13" s="25">
         <f t="shared" si="16"/>
-        <v>3.5294117647058837E-2</v>
+        <v>5.2631578947368446E-2</v>
       </c>
       <c r="W13" s="25">
         <f t="shared" si="17"/>
-        <v>3.5294117647058837E-2</v>
+        <v>5.2631578947368446E-2</v>
       </c>
       <c r="X13" s="25">
         <f t="shared" si="18"/>
@@ -7833,11 +7833,11 @@
       </c>
       <c r="Z13" s="25">
         <f t="shared" si="20"/>
-        <v>3.8769230769230771E-2</v>
+        <v>5.609973285841497E-2</v>
       </c>
       <c r="AA13" s="25">
         <f t="shared" si="21"/>
-        <v>3.8769230769230771E-2</v>
+        <v>5.619982158786798E-2</v>
       </c>
       <c r="AB13" s="25">
         <f t="shared" si="22"/>
@@ -7845,11 +7845,11 @@
       </c>
       <c r="AC13" s="25">
         <f t="shared" si="23"/>
-        <v>3.5294117647058837E-2</v>
+        <v>5.2631578947368446E-2</v>
       </c>
       <c r="AD13" s="25">
         <f t="shared" si="24"/>
-        <v>9.4736842105263161E-2</v>
+        <v>0.10344827586206896</v>
       </c>
       <c r="AE13" s="25">
         <f t="shared" si="25"/>
@@ -7861,16 +7861,16 @@
       </c>
       <c r="AG13" s="39">
         <f t="shared" si="27"/>
-        <v>5.9636024100556781E-2</v>
+        <v>7.0623615976117993E-2</v>
       </c>
       <c r="AH13" s="1"/>
       <c r="AI13" s="96">
         <f t="shared" si="28"/>
-        <v>1.0040422201542756</v>
+        <v>1.1391438009134631</v>
       </c>
       <c r="AJ13" s="97">
         <f t="shared" si="31"/>
-        <v>16.836169669213437</v>
+        <v>16.129785839607461</v>
       </c>
     </row>
     <row r="14" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7926,27 +7926,27 @@
       </c>
       <c r="R14" s="36">
         <f t="shared" si="12"/>
-        <v>4.3076923076923075E-3</v>
+        <v>6.2333036509349959E-3</v>
       </c>
       <c r="S14" s="25">
         <f t="shared" si="13"/>
-        <v>4.3076923076923075E-3</v>
+        <v>6.2333036509349959E-3</v>
       </c>
       <c r="T14" s="25">
         <f t="shared" si="14"/>
-        <v>1.9607843137254905E-2</v>
+        <v>1.7543859649122813E-2</v>
       </c>
       <c r="U14" s="25">
         <f t="shared" si="15"/>
-        <v>4.3076923076923075E-3</v>
+        <v>6.2333036509349959E-3</v>
       </c>
       <c r="V14" s="25">
         <f t="shared" si="16"/>
-        <v>1.9607843137254905E-2</v>
+        <v>1.7543859649122813E-2</v>
       </c>
       <c r="W14" s="25">
         <f t="shared" si="17"/>
-        <v>1.9607843137254905E-2</v>
+        <v>1.7543859649122813E-2</v>
       </c>
       <c r="X14" s="25">
         <f t="shared" si="18"/>
@@ -7958,11 +7958,11 @@
       </c>
       <c r="Z14" s="25">
         <f t="shared" si="20"/>
-        <v>4.3076923076923075E-3</v>
+        <v>6.2333036509349959E-3</v>
       </c>
       <c r="AA14" s="25">
         <f t="shared" si="21"/>
-        <v>4.3076923076923075E-3</v>
+        <v>6.2444246208742202E-3</v>
       </c>
       <c r="AB14" s="25">
         <f t="shared" si="22"/>
@@ -7970,11 +7970,11 @@
       </c>
       <c r="AC14" s="25">
         <f t="shared" si="23"/>
-        <v>1.9607843137254905E-2</v>
+        <v>1.7543859649122813E-2</v>
       </c>
       <c r="AD14" s="25">
         <f t="shared" si="24"/>
-        <v>1.0526315789473684E-2</v>
+        <v>1.1494252873563218E-2</v>
       </c>
       <c r="AE14" s="25">
         <f t="shared" si="25"/>
@@ -7986,16 +7986,16 @@
       </c>
       <c r="AG14" s="39">
         <f t="shared" si="27"/>
-        <v>9.2429074027251916E-3</v>
+        <v>9.399652790572784E-3</v>
       </c>
       <c r="AH14" s="1"/>
       <c r="AI14" s="96">
         <f t="shared" si="28"/>
-        <v>0.14070709529974948</v>
+        <v>0.14182515414359317</v>
       </c>
       <c r="AJ14" s="97">
         <f t="shared" si="31"/>
-        <v>15.223250560560977</v>
+        <v>15.08833967631594</v>
       </c>
     </row>
     <row r="15" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8005,11 +8005,11 @@
       </c>
       <c r="C15" s="67">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" s="67">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E15" s="67">
         <f t="shared" si="29"/>
@@ -8017,7 +8017,7 @@
       </c>
       <c r="F15" s="67">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G15" s="67">
         <v>1</v>
@@ -8036,11 +8036,11 @@
       </c>
       <c r="K15" s="67">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L15" s="67">
         <f t="shared" si="30"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M15" s="67">
         <f t="shared" si="8"/>
@@ -8064,27 +8064,27 @@
       </c>
       <c r="R15" s="36">
         <f t="shared" si="12"/>
-        <v>0.19384615384615386</v>
+        <v>0.16829919857524492</v>
       </c>
       <c r="S15" s="25">
         <f t="shared" si="13"/>
-        <v>0.19384615384615386</v>
+        <v>0.16829919857524492</v>
       </c>
       <c r="T15" s="25">
         <f t="shared" si="14"/>
-        <v>0.17647058823529416</v>
+        <v>0.15789473684210534</v>
       </c>
       <c r="U15" s="25">
         <f t="shared" si="15"/>
-        <v>0.19384615384615386</v>
+        <v>0.16829919857524492</v>
       </c>
       <c r="V15" s="25">
         <f t="shared" si="16"/>
-        <v>0.17647058823529416</v>
+        <v>0.15789473684210534</v>
       </c>
       <c r="W15" s="25">
         <f t="shared" si="17"/>
-        <v>0.17647058823529416</v>
+        <v>0.15789473684210534</v>
       </c>
       <c r="X15" s="25">
         <f t="shared" si="18"/>
@@ -8096,11 +8096,11 @@
       </c>
       <c r="Z15" s="25">
         <f t="shared" si="20"/>
-        <v>0.19384615384615386</v>
+        <v>0.16829919857524492</v>
       </c>
       <c r="AA15" s="25">
         <f t="shared" si="21"/>
-        <v>0.19384615384615386</v>
+        <v>0.16859946476360396</v>
       </c>
       <c r="AB15" s="25">
         <f t="shared" si="22"/>
@@ -8108,11 +8108,11 @@
       </c>
       <c r="AC15" s="25">
         <f t="shared" si="23"/>
-        <v>0.17647058823529416</v>
+        <v>0.15789473684210534</v>
       </c>
       <c r="AD15" s="25">
         <f t="shared" si="24"/>
-        <v>9.4736842105263161E-2</v>
+        <v>0.10344827586206896</v>
       </c>
       <c r="AE15" s="25">
         <f t="shared" si="25"/>
@@ -8124,16 +8124,16 @@
       </c>
       <c r="AG15" s="39">
         <f t="shared" si="27"/>
-        <v>0.15602384876617359</v>
+        <v>0.14315541663403128</v>
       </c>
       <c r="AH15" s="1"/>
       <c r="AI15" s="96">
         <f t="shared" si="28"/>
-        <v>2.8145163574713092</v>
+        <v>2.3370997976228631</v>
       </c>
       <c r="AJ15" s="97">
         <f t="shared" si="31"/>
-        <v>18.039013777241884</v>
+        <v>16.32561206955603</v>
       </c>
     </row>
     <row r="16" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8142,16 +8142,16 @@
         <v>28</v>
       </c>
       <c r="C16" s="67">
-        <v>0.1111111111111111</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="D16" s="67">
-        <v>0.1111111111111111</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="E16" s="67">
         <v>0.1111111111111111</v>
       </c>
       <c r="F16" s="67">
-        <v>0.1111111111111111</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="G16" s="67">
         <v>0.1111111111111111</v>
@@ -8166,7 +8166,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="K16" s="67">
-        <v>0.1111111111111111</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="L16" s="67">
         <v>0.1111111111111111</v>
@@ -8190,27 +8190,27 @@
       </c>
       <c r="R16" s="36">
         <f t="shared" si="12"/>
-        <v>4.3076923076923075E-3</v>
+        <v>8.0142475512021381E-3</v>
       </c>
       <c r="S16" s="25">
         <f t="shared" si="13"/>
-        <v>4.3076923076923075E-3</v>
+        <v>8.0142475512021381E-3</v>
       </c>
       <c r="T16" s="25">
         <f t="shared" si="14"/>
-        <v>1.9607843137254905E-2</v>
+        <v>1.7543859649122813E-2</v>
       </c>
       <c r="U16" s="25">
         <f t="shared" si="15"/>
-        <v>4.3076923076923075E-3</v>
+        <v>8.0142475512021381E-3</v>
       </c>
       <c r="V16" s="25">
         <f t="shared" si="16"/>
-        <v>1.9607843137254905E-2</v>
+        <v>1.7543859649122813E-2</v>
       </c>
       <c r="W16" s="25">
         <f t="shared" si="17"/>
-        <v>1.9607843137254905E-2</v>
+        <v>1.7543859649122813E-2</v>
       </c>
       <c r="X16" s="25">
         <f t="shared" si="18"/>
@@ -8222,11 +8222,11 @@
       </c>
       <c r="Z16" s="25">
         <f t="shared" si="20"/>
-        <v>4.3076923076923075E-3</v>
+        <v>8.0142475512021381E-3</v>
       </c>
       <c r="AA16" s="25">
         <f t="shared" si="21"/>
-        <v>4.3076923076923075E-3</v>
+        <v>6.2444246208742202E-3</v>
       </c>
       <c r="AB16" s="25">
         <f t="shared" si="22"/>
@@ -8234,11 +8234,11 @@
       </c>
       <c r="AC16" s="25">
         <f t="shared" si="23"/>
-        <v>1.9607843137254905E-2</v>
+        <v>1.7543859649122813E-2</v>
       </c>
       <c r="AD16" s="25">
         <f t="shared" si="24"/>
-        <v>1.0526315789473684E-2</v>
+        <v>1.1494252873563218E-2</v>
       </c>
       <c r="AE16" s="25">
         <f t="shared" si="25"/>
@@ -8250,16 +8250,16 @@
       </c>
       <c r="AG16" s="39">
         <f t="shared" si="27"/>
-        <v>9.2429074027251916E-3</v>
+        <v>9.8745711639773529E-3</v>
       </c>
       <c r="AH16" s="1"/>
       <c r="AI16" s="96">
         <f t="shared" si="28"/>
-        <v>0.14070709529974948</v>
+        <v>0.15059862067391822</v>
       </c>
       <c r="AJ16" s="97">
         <f t="shared" si="31"/>
-        <v>15.223250560560977</v>
+        <v>15.251155536080919</v>
       </c>
     </row>
     <row r="17" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8317,27 +8317,27 @@
       </c>
       <c r="R17" s="36">
         <f t="shared" si="12"/>
-        <v>5.538461538461539E-3</v>
+        <v>8.0142475512021381E-3</v>
       </c>
       <c r="S17" s="25">
         <f t="shared" si="13"/>
-        <v>5.538461538461539E-3</v>
+        <v>8.0142475512021381E-3</v>
       </c>
       <c r="T17" s="25">
         <f t="shared" si="14"/>
-        <v>1.9607843137254905E-2</v>
+        <v>1.7543859649122813E-2</v>
       </c>
       <c r="U17" s="25">
         <f t="shared" si="15"/>
-        <v>5.538461538461539E-3</v>
+        <v>8.0142475512021381E-3</v>
       </c>
       <c r="V17" s="25">
         <f t="shared" si="16"/>
-        <v>1.9607843137254905E-2</v>
+        <v>1.7543859649122813E-2</v>
       </c>
       <c r="W17" s="25">
         <f t="shared" si="17"/>
-        <v>1.9607843137254905E-2</v>
+        <v>1.7543859649122813E-2</v>
       </c>
       <c r="X17" s="25">
         <f t="shared" si="18"/>
@@ -8349,11 +8349,11 @@
       </c>
       <c r="Z17" s="25">
         <f t="shared" si="20"/>
-        <v>5.538461538461539E-3</v>
+        <v>8.0142475512021381E-3</v>
       </c>
       <c r="AA17" s="25">
         <f t="shared" si="21"/>
-        <v>5.538461538461539E-3</v>
+        <v>8.028545941123998E-3</v>
       </c>
       <c r="AB17" s="25">
         <f t="shared" si="22"/>
@@ -8361,11 +8361,11 @@
       </c>
       <c r="AC17" s="25">
         <f t="shared" si="23"/>
-        <v>1.9607843137254905E-2</v>
+        <v>1.7543859649122813E-2</v>
       </c>
       <c r="AD17" s="25">
         <f t="shared" si="24"/>
-        <v>3.1578947368421054E-2</v>
+        <v>3.4482758620689655E-2</v>
       </c>
       <c r="AE17" s="25">
         <f t="shared" si="25"/>
@@ -8377,16 +8377,16 @@
       </c>
       <c r="AG17" s="39">
         <f t="shared" si="27"/>
-        <v>1.4809667406767832E-2</v>
+        <v>1.527907445699217E-2</v>
       </c>
       <c r="AH17" s="1"/>
       <c r="AI17" s="96">
         <f t="shared" si="28"/>
-        <v>0.22663720690021477</v>
+        <v>0.23213328668979499</v>
       </c>
       <c r="AJ17" s="97">
         <f t="shared" si="31"/>
-        <v>15.303328607949995</v>
+        <v>15.192889290722956</v>
       </c>
     </row>
     <row r="18" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8446,27 +8446,27 @@
       </c>
       <c r="R18" s="37">
         <f t="shared" si="12"/>
-        <v>5.538461538461539E-3</v>
+        <v>8.0142475512021381E-3</v>
       </c>
       <c r="S18" s="76">
         <f t="shared" si="13"/>
-        <v>5.538461538461539E-3</v>
+        <v>8.0142475512021381E-3</v>
       </c>
       <c r="T18" s="76">
         <f t="shared" si="14"/>
-        <v>1.9607843137254905E-2</v>
+        <v>1.7543859649122813E-2</v>
       </c>
       <c r="U18" s="76">
         <f t="shared" si="15"/>
-        <v>5.538461538461539E-3</v>
+        <v>8.0142475512021381E-3</v>
       </c>
       <c r="V18" s="76">
         <f t="shared" si="16"/>
-        <v>1.9607843137254905E-2</v>
+        <v>1.7543859649122813E-2</v>
       </c>
       <c r="W18" s="76">
         <f t="shared" si="17"/>
-        <v>1.9607843137254905E-2</v>
+        <v>1.7543859649122813E-2</v>
       </c>
       <c r="X18" s="76">
         <f t="shared" si="18"/>
@@ -8478,11 +8478,11 @@
       </c>
       <c r="Z18" s="76">
         <f t="shared" si="20"/>
-        <v>5.538461538461539E-3</v>
+        <v>8.0142475512021381E-3</v>
       </c>
       <c r="AA18" s="76">
         <f t="shared" si="21"/>
-        <v>5.538461538461539E-3</v>
+        <v>8.028545941123998E-3</v>
       </c>
       <c r="AB18" s="76">
         <f t="shared" si="22"/>
@@ -8490,11 +8490,11 @@
       </c>
       <c r="AC18" s="76">
         <f t="shared" si="23"/>
-        <v>1.9607843137254905E-2</v>
+        <v>1.7543859649122813E-2</v>
       </c>
       <c r="AD18" s="76">
         <f t="shared" si="24"/>
-        <v>3.1578947368421054E-2</v>
+        <v>3.4482758620689655E-2</v>
       </c>
       <c r="AE18" s="76">
         <f t="shared" si="25"/>
@@ -8506,16 +8506,16 @@
       </c>
       <c r="AG18" s="38">
         <f t="shared" si="27"/>
-        <v>1.4809667406767832E-2</v>
+        <v>1.527907445699217E-2</v>
       </c>
       <c r="AH18" s="1"/>
       <c r="AI18" s="96">
         <f t="shared" si="28"/>
-        <v>0.22663720690021477</v>
+        <v>0.23213328668979499</v>
       </c>
       <c r="AJ18" s="97">
         <f t="shared" si="31"/>
-        <v>15.303328607949995</v>
+        <v>15.192889290722956</v>
       </c>
     </row>
     <row r="19" spans="1:36" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -8525,27 +8525,27 @@
       </c>
       <c r="C19" s="62">
         <f>SUM(C4:C18)</f>
-        <v>25.793650793650791</v>
+        <v>17.825396825396822</v>
       </c>
       <c r="D19" s="62">
         <f t="shared" ref="D19:Q19" si="35">SUM(D4:D18)</f>
-        <v>25.793650793650791</v>
+        <v>17.825396825396822</v>
       </c>
       <c r="E19" s="62">
         <f t="shared" si="35"/>
-        <v>5.6666666666666652</v>
+        <v>6.3333333333333304</v>
       </c>
       <c r="F19" s="62">
         <f t="shared" si="35"/>
-        <v>25.793650793650791</v>
+        <v>17.825396825396822</v>
       </c>
       <c r="G19" s="62">
         <f t="shared" si="35"/>
-        <v>5.6666666666666652</v>
+        <v>6.3333333333333304</v>
       </c>
       <c r="H19" s="62">
         <f t="shared" si="35"/>
-        <v>5.6666666666666652</v>
+        <v>6.3333333333333304</v>
       </c>
       <c r="I19" s="62">
         <f t="shared" si="35"/>
@@ -8557,11 +8557,11 @@
       </c>
       <c r="K19" s="62">
         <f t="shared" si="35"/>
-        <v>25.793650793650791</v>
+        <v>17.825396825396822</v>
       </c>
       <c r="L19" s="62">
         <f t="shared" si="35"/>
-        <v>25.793650793650791</v>
+        <v>17.793650793650791</v>
       </c>
       <c r="M19" s="62">
         <f t="shared" si="35"/>
@@ -8569,11 +8569,11 @@
       </c>
       <c r="N19" s="62">
         <f t="shared" si="35"/>
-        <v>5.6666666666666652</v>
+        <v>6.3333333333333304</v>
       </c>
       <c r="O19" s="62">
         <f t="shared" si="35"/>
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="P19" s="62">
         <f t="shared" si="35"/>
@@ -8607,63 +8607,63 @@
       </c>
       <c r="C20" s="118">
         <f>AG4</f>
-        <v>5.9636024100556781E-2</v>
+        <v>6.9091048926309559E-2</v>
       </c>
       <c r="D20" s="118">
         <f>AG5</f>
-        <v>5.9636024100556781E-2</v>
+        <v>6.9091048926309559E-2</v>
       </c>
       <c r="E20" s="118">
         <f>AG6</f>
-        <v>0.15602384876617359</v>
+        <v>0.14315541663403128</v>
       </c>
       <c r="F20" s="118">
         <f>AG7</f>
-        <v>5.9636024100556781E-2</v>
+        <v>6.9091048926309559E-2</v>
       </c>
       <c r="G20" s="118">
         <f>AG8</f>
-        <v>0.15602384876617359</v>
+        <v>0.14315541663403128</v>
       </c>
       <c r="H20" s="118">
         <f>AG9</f>
-        <v>0.15602384876617359</v>
+        <v>0.14315541663403128</v>
       </c>
       <c r="I20" s="118">
         <f>AG10</f>
-        <v>1.4809667406767832E-2</v>
+        <v>1.527907445699217E-2</v>
       </c>
       <c r="J20" s="118">
         <f>AG11</f>
-        <v>1.4809667406767832E-2</v>
+        <v>1.527907445699217E-2</v>
       </c>
       <c r="K20" s="118">
         <f>AG12</f>
-        <v>5.9636024100556781E-2</v>
+        <v>6.9091048926309559E-2</v>
       </c>
       <c r="L20" s="118">
         <f>AG13</f>
-        <v>5.9636024100556781E-2</v>
+        <v>7.0623615976117993E-2</v>
       </c>
       <c r="M20" s="118">
         <f>AG14</f>
-        <v>9.2429074027251916E-3</v>
+        <v>9.399652790572784E-3</v>
       </c>
       <c r="N20" s="118">
         <f>AG15</f>
-        <v>0.15602384876617359</v>
+        <v>0.14315541663403128</v>
       </c>
       <c r="O20" s="118">
         <f>AG16</f>
-        <v>9.2429074027251916E-3</v>
+        <v>9.8745711639773529E-3</v>
       </c>
       <c r="P20" s="118">
         <f>AG17</f>
-        <v>1.4809667406767832E-2</v>
+        <v>1.527907445699217E-2</v>
       </c>
       <c r="Q20" s="119">
         <f>AG18</f>
-        <v>1.4809667406767832E-2</v>
+        <v>1.527907445699217E-2</v>
       </c>
     </row>
     <row r="22" spans="1:36" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -8730,70 +8730,70 @@
       </c>
       <c r="C24" s="155"/>
       <c r="D24" s="161">
-        <v>170166760</v>
+        <v>316217836.2712701</v>
       </c>
       <c r="E24" s="132">
         <f>1/(D24/$D$39)</f>
-        <v>25.961967871986278</v>
+        <v>21.726817419943785</v>
       </c>
       <c r="F24" s="139">
         <v>0</v>
       </c>
       <c r="G24" s="140">
-        <f t="shared" ref="G24:T24" si="36">$F$39/G39</f>
-        <v>0.99177277630484351</v>
+        <f>$F$39/G39</f>
+        <v>0.95572672254960966</v>
       </c>
       <c r="H24" s="140">
-        <f t="shared" si="36"/>
-        <v>0.5971666851975086</v>
+        <f t="shared" ref="G24:T24" si="36">$F$39/H39</f>
+        <v>0.68759097747134079</v>
       </c>
       <c r="I24" s="140">
         <f t="shared" si="36"/>
-        <v>0.99294809397558015</v>
+        <v>0.9620514764710939</v>
       </c>
       <c r="J24" s="140">
         <f t="shared" si="36"/>
-        <v>0.59364073218529867</v>
+        <v>0.66861671570688785</v>
       </c>
       <c r="K24" s="140">
         <f t="shared" si="36"/>
-        <v>0.59628519694445603</v>
+        <v>0.68284741203022759</v>
       </c>
       <c r="L24" s="140">
         <f t="shared" si="36"/>
-        <v>2.7027805312858986</v>
+        <v>2.0711556012671197</v>
       </c>
       <c r="M24" s="140">
         <f t="shared" si="36"/>
-        <v>2.7039558489566349</v>
+        <v>2.0774803551886039</v>
       </c>
       <c r="N24" s="140">
         <f t="shared" si="36"/>
-        <v>0.9979431940762109</v>
+        <v>0.98893168063740222</v>
       </c>
       <c r="O24" s="140">
         <f t="shared" si="36"/>
-        <v>0.98898139683684405</v>
+        <v>0.94070543198608458</v>
       </c>
       <c r="P24" s="140">
         <f t="shared" si="36"/>
-        <v>3.9109866462756884</v>
+        <v>3.0068014803727259</v>
       </c>
       <c r="Q24" s="140">
         <f t="shared" si="36"/>
-        <v>0.59584445281792986</v>
+        <v>0.68047562930967098</v>
       </c>
       <c r="R24" s="140">
         <f t="shared" si="36"/>
-        <v>3.8805753015453779</v>
+        <v>2.8431484726543195</v>
       </c>
       <c r="S24" s="140">
         <f t="shared" si="36"/>
-        <v>2.7060126548804244</v>
+        <v>2.0885486745512014</v>
       </c>
       <c r="T24" s="141">
         <f t="shared" si="36"/>
-        <v>2.7030743607035825</v>
+        <v>2.0727367897474909</v>
       </c>
       <c r="X24" s="47" t="s">
         <v>75</v>
@@ -8805,70 +8805,70 @@
       </c>
       <c r="C25" s="156"/>
       <c r="D25" s="162">
-        <v>168766760</v>
+        <v>302217836.2712701</v>
       </c>
       <c r="E25" s="132">
         <f t="shared" ref="E25:E38" si="37">1/(D25/$D$39)</f>
-        <v>26.177334659976882</v>
+        <v>22.733294892061569</v>
       </c>
       <c r="F25" s="142">
         <f t="shared" ref="F25:F38" si="38">E25/$E$24</f>
-        <v>1.008295472402267</v>
+        <v>1.0463242016842238</v>
       </c>
       <c r="G25" s="100">
         <v>0</v>
       </c>
       <c r="H25" s="100">
         <f t="shared" ref="H25:T25" si="39">$G$39/H39</f>
-        <v>0.60212046495411775</v>
+        <v>0.71944308058797579</v>
       </c>
       <c r="I25" s="100">
         <f t="shared" si="39"/>
-        <v>1.0011850674860381</v>
+        <v>1.0066177430977461</v>
       </c>
       <c r="J25" s="100">
         <f t="shared" si="39"/>
-        <v>0.59856526249600339</v>
+        <v>0.69958985129473716</v>
       </c>
       <c r="K25" s="100">
         <f t="shared" si="39"/>
-        <v>0.60123166433958908</v>
+        <v>0.71447977326466605</v>
       </c>
       <c r="L25" s="100">
         <f t="shared" si="39"/>
-        <v>2.725201372592565</v>
+        <v>2.1671002310596275</v>
       </c>
       <c r="M25" s="100">
         <f t="shared" si="39"/>
-        <v>2.7263864400786031</v>
+        <v>2.1737179741573738</v>
       </c>
       <c r="N25" s="100">
         <f t="shared" si="39"/>
-        <v>1.0062216043017003</v>
+        <v>1.0347431512631677</v>
       </c>
       <c r="O25" s="100">
         <f t="shared" si="39"/>
-        <v>0.9971854647206595</v>
+        <v>0.98428286014285282</v>
       </c>
       <c r="P25" s="100">
         <f t="shared" si="39"/>
-        <v>3.9434301280655033</v>
+        <v>3.1460891585739348</v>
       </c>
       <c r="Q25" s="100">
         <f t="shared" si="39"/>
-        <v>0.60078726403232485</v>
+        <v>0.7119981196030114</v>
       </c>
       <c r="R25" s="100">
         <f t="shared" si="39"/>
-        <v>3.9127665068642665</v>
+        <v>2.9748550559197509</v>
       </c>
       <c r="S25" s="100">
         <f t="shared" si="39"/>
-        <v>2.7284603081791703</v>
+        <v>2.1852990245784296</v>
       </c>
       <c r="T25" s="143">
         <f t="shared" si="39"/>
-        <v>2.7254976394640744</v>
+        <v>2.1687546668340643</v>
       </c>
     </row>
     <row r="26" spans="1:36" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8877,70 +8877,70 @@
       </c>
       <c r="C26" s="156"/>
       <c r="D26" s="162">
-        <v>101617920</v>
+        <v>217428531.13563505</v>
       </c>
       <c r="E26" s="132">
         <f>1/(D26/$D$39)</f>
-        <v>43.47524487806875</v>
+        <v>31.598462068024116</v>
       </c>
       <c r="F26" s="142">
         <f t="shared" si="38"/>
-        <v>1.6745743270478279</v>
+        <v>1.4543529987516171</v>
       </c>
       <c r="G26" s="100">
         <f t="shared" ref="G26:G38" si="40">E26/$E$25</f>
-        <v>1.6607972294650393</v>
+        <v>1.3899640249270795</v>
       </c>
       <c r="H26" s="100">
         <v>0</v>
       </c>
       <c r="I26" s="100">
         <f t="shared" ref="I26:T26" si="41">$H$39/I39</f>
-        <v>1.6627653862625804</v>
+        <v>1.3991624497591562</v>
       </c>
       <c r="J26" s="100">
         <f t="shared" si="41"/>
-        <v>0.99409552960737635</v>
+        <v>0.97240472550376988</v>
       </c>
       <c r="K26" s="100">
         <f t="shared" si="41"/>
-        <v>0.99852388240184398</v>
+        <v>0.9931011813759425</v>
       </c>
       <c r="L26" s="100">
         <f>$H$39/L39</f>
-        <v>4.5260068893360543</v>
+        <v>3.0121913595840439</v>
       </c>
       <c r="M26" s="100">
         <f t="shared" si="41"/>
-        <v>4.5279750461335952</v>
+        <v>3.0213897844161206</v>
       </c>
       <c r="N26" s="100">
         <f t="shared" si="41"/>
-        <v>1.6711300526521307</v>
+        <v>1.4382557552954824</v>
       </c>
       <c r="O26" s="100">
         <f t="shared" si="41"/>
-        <v>1.656122857070879</v>
+        <v>1.3681177659508974</v>
       </c>
       <c r="P26" s="100">
         <f t="shared" si="41"/>
-        <v>6.549237831280152</v>
+        <v>4.372950749630875</v>
       </c>
       <c r="Q26" s="100">
         <f t="shared" si="41"/>
-        <v>0.99778582360276613</v>
+        <v>0.98965177206391386</v>
       </c>
       <c r="R26" s="100">
         <f t="shared" si="41"/>
-        <v>6.4983117741437733</v>
+        <v>4.1349415071008888</v>
       </c>
       <c r="S26" s="100">
         <f t="shared" si="41"/>
-        <v>4.5314193205292925</v>
+        <v>3.0374870278722552</v>
       </c>
       <c r="T26" s="143">
         <f t="shared" si="41"/>
-        <v>4.5264989285354389</v>
+        <v>3.0144909657920631</v>
       </c>
     </row>
     <row r="27" spans="1:36" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8949,70 +8949,70 @@
       </c>
       <c r="C27" s="156"/>
       <c r="D27" s="162">
-        <v>168966760</v>
+        <v>304217836.2712701</v>
       </c>
       <c r="E27" s="132">
         <f t="shared" si="37"/>
-        <v>26.146349471339807</v>
+        <v>22.583840835253472</v>
       </c>
       <c r="F27" s="142">
         <f t="shared" si="38"/>
-        <v>1.0071019885804759</v>
+        <v>1.0394454189375659</v>
       </c>
       <c r="G27" s="100">
         <f t="shared" si="40"/>
-        <v>0.9988163352365873</v>
+        <v>0.99342576351040579</v>
       </c>
       <c r="H27" s="100">
         <f t="shared" ref="H27:H38" si="42">E27/$E$26</f>
-        <v>0.60140775617642195</v>
+        <v>0.71471329163538821</v>
       </c>
       <c r="I27" s="100">
         <v>0</v>
       </c>
       <c r="J27" s="100">
         <f t="shared" ref="J27:T27" si="43">$I$39/J39</f>
-        <v>0.59785676188618397</v>
+        <v>0.69499058216660548</v>
       </c>
       <c r="K27" s="100">
         <f t="shared" si="43"/>
-        <v>0.60052000760386237</v>
+        <v>0.70978261426819256</v>
       </c>
       <c r="L27" s="100">
         <f t="shared" si="43"/>
-        <v>2.7219756477546233</v>
+        <v>2.1528532016439876</v>
       </c>
       <c r="M27" s="100">
         <f t="shared" si="43"/>
-        <v>2.7231593125180358</v>
+        <v>2.1594274381335818</v>
       </c>
       <c r="N27" s="100">
         <f t="shared" si="43"/>
-        <v>1.0050305752445037</v>
+        <v>1.0279405050807757</v>
       </c>
       <c r="O27" s="100">
         <f t="shared" si="43"/>
-        <v>0.99600513142348246</v>
+        <v>0.97781195184761949</v>
       </c>
       <c r="P27" s="100">
         <f t="shared" si="43"/>
-        <v>3.9387624287759322</v>
+        <v>3.1254060244281212</v>
       </c>
       <c r="Q27" s="100">
         <f t="shared" si="43"/>
-        <v>0.60007613331758269</v>
+        <v>0.70731727558459478</v>
       </c>
       <c r="R27" s="100">
         <f t="shared" si="43"/>
-        <v>3.9081351030226301</v>
+        <v>2.9552976552598693</v>
       </c>
       <c r="S27" s="100">
         <f t="shared" si="43"/>
-        <v>2.7252307258540083</v>
+        <v>2.1709323519903716</v>
       </c>
       <c r="T27" s="143">
         <f t="shared" si="43"/>
-        <v>2.7222715639454766</v>
+        <v>2.1544967607663859</v>
       </c>
     </row>
     <row r="28" spans="1:36" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9021,70 +9021,70 @@
       </c>
       <c r="C28" s="156"/>
       <c r="D28" s="162">
-        <v>101017920</v>
+        <v>211428531.13563505</v>
       </c>
       <c r="E28" s="132">
         <f t="shared" si="37"/>
-        <v>43.733467844121122</v>
+        <v>32.495175351656201</v>
       </c>
       <c r="F28" s="142">
         <f t="shared" si="38"/>
-        <v>1.6845205286349196</v>
+        <v>1.4956251863113543</v>
       </c>
       <c r="G28" s="100">
         <f t="shared" si="40"/>
-        <v>1.6706616014267568</v>
+        <v>1.4294089574759998</v>
       </c>
       <c r="H28" s="100">
         <f t="shared" si="42"/>
-        <v>1.0059395402320697</v>
+        <v>1.0283783837865803</v>
       </c>
       <c r="I28" s="100">
         <f t="shared" ref="I28:I38" si="44">E28/$E$27</f>
-        <v>1.6726414481707801</v>
+        <v>1.4388684187381933</v>
       </c>
       <c r="J28" s="100">
         <v>0</v>
       </c>
       <c r="K28" s="100">
         <f>$J$39/K39</f>
-        <v>1.0044546551740523</v>
+        <v>1.0212837878399352</v>
       </c>
       <c r="L28" s="100">
         <f t="shared" ref="L28:T28" si="45">$J$39/L39</f>
-        <v>4.5528892893458899</v>
+        <v>3.0976724820249411</v>
       </c>
       <c r="M28" s="100">
         <f t="shared" si="45"/>
-        <v>4.5548691360899136</v>
+        <v>3.107131943287134</v>
       </c>
       <c r="N28" s="100">
         <f t="shared" si="45"/>
-        <v>1.6810557968328788</v>
+        <v>1.4790711291025154</v>
       </c>
       <c r="O28" s="100">
         <f t="shared" si="45"/>
-        <v>1.6659594654097016</v>
+        <v>1.4069427369782908</v>
       </c>
       <c r="P28" s="100">
         <f>$J$39/P39</f>
-        <v>6.5881372928684341</v>
+        <v>4.4970480242837141</v>
       </c>
       <c r="Q28" s="100">
         <f t="shared" si="45"/>
-        <v>1.0037122126450435</v>
+        <v>1.0177364898666128</v>
       </c>
       <c r="R28" s="100">
         <f t="shared" si="45"/>
-        <v>6.5369087583668328</v>
+        <v>4.2522844641244584</v>
       </c>
       <c r="S28" s="100">
         <f t="shared" si="45"/>
-        <v>4.5583338678919549</v>
+        <v>3.1236860004959728</v>
       </c>
       <c r="T28" s="143">
         <f t="shared" si="45"/>
-        <v>4.553384251031896</v>
+        <v>3.1000373473404892</v>
       </c>
     </row>
     <row r="29" spans="1:36" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9093,70 +9093,70 @@
       </c>
       <c r="C29" s="156"/>
       <c r="D29" s="162">
-        <v>101467920</v>
+        <v>215928531.13563505</v>
       </c>
       <c r="E29" s="132">
         <f t="shared" si="37"/>
-        <v>43.539514321373694</v>
+        <v>31.817968461425473</v>
       </c>
       <c r="F29" s="142">
         <f t="shared" si="38"/>
-        <v>1.6770498498441677</v>
+        <v>1.4644560151832766</v>
       </c>
       <c r="G29" s="100">
         <f t="shared" si="40"/>
-        <v>1.6632523855815711</v>
+        <v>1.3996197477091743</v>
       </c>
       <c r="H29" s="100">
         <f t="shared" si="42"/>
-        <v>1.0014782997424212</v>
+        <v>1.0069467429436538</v>
       </c>
       <c r="I29" s="100">
         <f t="shared" si="44"/>
-        <v>1.6652234519047993</v>
+        <v>1.4088820716340458</v>
       </c>
       <c r="J29" s="100">
         <f t="shared" ref="J29:J38" si="46">E29/$E$28</f>
-        <v>0.99556510077273686</v>
+        <v>0.97915977116903874</v>
       </c>
       <c r="K29" s="100">
         <v>0</v>
       </c>
       <c r="L29" s="100">
         <f>$K$39/L39</f>
-        <v>4.5326976841547557</v>
+        <v>3.0331162786561694</v>
       </c>
       <c r="M29" s="100">
         <f t="shared" ref="M29:T29" si="47">$K$39/M39</f>
-        <v>4.5346687504779837</v>
+        <v>3.0423786025810409</v>
       </c>
       <c r="N29" s="100">
         <f t="shared" si="47"/>
-        <v>1.6736004837785186</v>
+        <v>1.4482469483147506</v>
       </c>
       <c r="O29" s="100">
         <f t="shared" si="47"/>
-        <v>1.6585711030639045</v>
+        <v>1.377621728387604</v>
       </c>
       <c r="P29" s="100">
         <f t="shared" si="47"/>
-        <v>6.5589195678791885</v>
+        <v>4.4033285143938192</v>
       </c>
       <c r="Q29" s="100">
         <f t="shared" si="47"/>
-        <v>0.99926085012878951</v>
+        <v>0.9965266285281732</v>
       </c>
       <c r="R29" s="100">
         <f t="shared" si="47"/>
-        <v>6.5079182267656623</v>
+        <v>4.1636658828377628</v>
       </c>
       <c r="S29" s="100">
         <f t="shared" si="47"/>
-        <v>4.5381181165436333</v>
+        <v>3.0585876694495666</v>
       </c>
       <c r="T29" s="143">
         <f t="shared" si="47"/>
-        <v>4.5331904507355629</v>
+        <v>3.035431859637387</v>
       </c>
     </row>
     <row r="30" spans="1:36" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9165,70 +9165,70 @@
       </c>
       <c r="C30" s="156"/>
       <c r="D30" s="162">
-        <v>459923406</v>
+        <v>654936342.81381011</v>
       </c>
       <c r="E30" s="132">
         <f t="shared" si="37"/>
-        <v>9.6056515027634841</v>
+        <v>10.490190793319178</v>
       </c>
       <c r="F30" s="142">
         <f t="shared" si="38"/>
-        <v>0.3699893455737715</v>
+        <v>0.48282224637695326</v>
       </c>
       <c r="G30" s="100">
         <f t="shared" si="40"/>
-        <v>0.36694536046291149</v>
+        <v>0.46144612310388566</v>
       </c>
       <c r="H30" s="100">
         <f t="shared" si="42"/>
-        <v>0.22094531105468462</v>
+        <v>0.33198422033123781</v>
       </c>
       <c r="I30" s="100">
         <f t="shared" si="44"/>
-        <v>0.36738021547874866</v>
+        <v>0.4644998550000381</v>
       </c>
       <c r="J30" s="100">
         <f t="shared" si="46"/>
-        <v>0.2196407460071732</v>
+        <v>0.32282302464278034</v>
       </c>
       <c r="K30" s="100">
         <f t="shared" ref="K30:K38" si="48">E30/$E$29</f>
-        <v>0.22061916979280674</v>
+        <v>0.3296939214091234</v>
       </c>
       <c r="L30" s="100">
         <v>0</v>
       </c>
       <c r="M30" s="100">
         <f>$L$39/M39</f>
-        <v>1.0004348550158371</v>
+        <v>1.0030537318961525</v>
       </c>
       <c r="N30" s="100">
         <f t="shared" ref="N30:T30" si="49">$L$39/N39</f>
-        <v>0.36922834929605652</v>
+        <v>0.47747821555868625</v>
       </c>
       <c r="O30" s="100">
         <f t="shared" si="49"/>
-        <v>0.36591257980029834</v>
+        <v>0.45419350985052354</v>
       </c>
       <c r="P30" s="100">
         <f t="shared" si="49"/>
-        <v>1.4470233898033014</v>
+        <v>1.4517506451631079</v>
       </c>
       <c r="Q30" s="100">
         <f t="shared" si="49"/>
-        <v>0.22045609916186784</v>
+        <v>0.32854877194806625</v>
       </c>
       <c r="R30" s="100">
         <f t="shared" si="49"/>
-        <v>1.4357715162685154</v>
+        <v>1.3727353323501621</v>
       </c>
       <c r="S30" s="100">
         <f t="shared" si="49"/>
-        <v>1.0011958512935522</v>
+        <v>1.0083977627144194</v>
       </c>
       <c r="T30" s="143">
         <f t="shared" si="49"/>
-        <v>1.0001087137539593</v>
+        <v>1.000763432974038</v>
       </c>
     </row>
     <row r="31" spans="1:36" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9237,70 +9237,70 @@
       </c>
       <c r="C31" s="156"/>
       <c r="D31" s="162">
-        <v>460123406</v>
+        <v>656936342.81381011</v>
       </c>
       <c r="E31" s="132">
         <f t="shared" si="37"/>
-        <v>9.6014762526555764</v>
+        <v>10.458254089228832</v>
       </c>
       <c r="F31" s="142">
         <f t="shared" si="38"/>
-        <v>0.36982852378520387</v>
+        <v>0.48135232542750811</v>
       </c>
       <c r="G31" s="100">
         <f t="shared" si="40"/>
-        <v>0.36678586179117351</v>
+        <v>0.46004128037246544</v>
       </c>
       <c r="H31" s="100">
         <f t="shared" si="42"/>
-        <v>0.22084927364029816</v>
+        <v>0.3309735159488032</v>
       </c>
       <c r="I31" s="100">
         <f t="shared" si="44"/>
-        <v>0.36722052779032072</v>
+        <v>0.46308571538032861</v>
       </c>
       <c r="J31" s="100">
         <f t="shared" si="46"/>
-        <v>0.21954527564285659</v>
+        <v>0.32184021092521359</v>
       </c>
       <c r="K31" s="100">
         <f t="shared" si="48"/>
-        <v>0.22052327414093775</v>
+        <v>0.32869018969290581</v>
       </c>
       <c r="L31" s="100">
         <f t="shared" ref="L31:L38" si="50">E31/$E$30</f>
-        <v>0.9995653340008529</v>
+        <v>0.99695556499213678</v>
       </c>
       <c r="M31" s="100">
         <v>0</v>
       </c>
       <c r="N31" s="100">
         <f>$M$39/N39</f>
-        <v>0.3690678582866963</v>
+        <v>0.47602456416374733</v>
       </c>
       <c r="O31" s="100">
         <f t="shared" ref="O31:T31" si="51">$M$39/O39</f>
-        <v>0.36575353004319894</v>
+        <v>0.45281074722879033</v>
       </c>
       <c r="P31" s="100">
         <f t="shared" si="51"/>
-        <v>1.4463944179357833</v>
+        <v>1.4473308846762853</v>
       </c>
       <c r="Q31" s="100">
         <f t="shared" si="51"/>
-        <v>0.22036027439125758</v>
+        <v>0.32754852656495714</v>
       </c>
       <c r="R31" s="100">
         <f t="shared" si="51"/>
-        <v>1.4351474352078495</v>
+        <v>1.3685561288478245</v>
       </c>
       <c r="S31" s="100">
         <f t="shared" si="51"/>
-        <v>1.0007606654985077</v>
+        <v>1.0053277612637606</v>
       </c>
       <c r="T31" s="143">
         <f t="shared" si="51"/>
-        <v>0.99967400050063959</v>
+        <v>0.99771667374410256</v>
       </c>
     </row>
     <row r="32" spans="1:36" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9309,70 +9309,70 @@
       </c>
       <c r="C32" s="156"/>
       <c r="D32" s="162">
-        <v>169816760</v>
+        <v>312717836.2712701</v>
       </c>
       <c r="E32" s="132">
         <f t="shared" si="37"/>
-        <v>26.015476658487653</v>
+        <v>21.969988266469596</v>
       </c>
       <c r="F32" s="142">
         <f t="shared" si="38"/>
-        <v>1.0020610450935468</v>
+        <v>1.0111921981864953</v>
       </c>
       <c r="G32" s="100">
         <f t="shared" si="40"/>
-        <v>0.99381686471935982</v>
+        <v>0.96642340544051453</v>
       </c>
       <c r="H32" s="100">
         <f t="shared" si="42"/>
-        <v>0.59839747266406451</v>
+        <v>0.69528663196244611</v>
       </c>
       <c r="I32" s="100">
         <f t="shared" si="44"/>
-        <v>0.99499460477281509</v>
+        <v>0.97281894726136886</v>
       </c>
       <c r="J32" s="100">
         <f t="shared" si="46"/>
-        <v>0.59486425250369868</v>
+        <v>0.676100006499883</v>
       </c>
       <c r="K32" s="100">
         <f t="shared" si="48"/>
-        <v>0.59751416762397302</v>
+        <v>0.69048997559680536</v>
       </c>
       <c r="L32" s="100">
         <f t="shared" si="50"/>
-        <v>2.7083510838388389</v>
+        <v>2.0943363852315713</v>
       </c>
       <c r="M32" s="100">
         <f t="shared" ref="M32:M38" si="52">E32/$E$31</f>
-        <v>2.7095288238922941</v>
+        <v>2.1007319270524256</v>
       </c>
       <c r="N32" s="100">
         <v>0</v>
       </c>
       <c r="O32" s="100">
         <f t="shared" ref="O32:T32" si="53">$N$39/O39</f>
-        <v>0.99101973209240368</v>
+        <v>0.95123399361598548</v>
       </c>
       <c r="P32" s="100">
         <f t="shared" si="53"/>
-        <v>3.9190473661139218</v>
+        <v>3.0404541984485052</v>
       </c>
       <c r="Q32" s="100">
         <f t="shared" si="53"/>
-        <v>0.59707251510392734</v>
+        <v>0.68809164741398499</v>
       </c>
       <c r="R32" s="100">
         <f t="shared" si="53"/>
-        <v>3.8885733422307669</v>
+        <v>2.874969553833898</v>
       </c>
       <c r="S32" s="100">
         <f t="shared" si="53"/>
-        <v>2.7115898689858411</v>
+        <v>2.1119241252389207</v>
       </c>
       <c r="T32" s="143">
         <f t="shared" si="53"/>
-        <v>2.7086455188522027</v>
+        <v>2.0959352706867849</v>
       </c>
     </row>
     <row r="33" spans="2:20" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9381,70 +9381,70 @@
       </c>
       <c r="C33" s="156"/>
       <c r="D33" s="162">
-        <v>168291760</v>
+        <v>297467836.2712701</v>
       </c>
       <c r="E33" s="132">
         <f t="shared" si="37"/>
-        <v>26.251219643790044</v>
+        <v>23.096302711968587</v>
       </c>
       <c r="F33" s="142">
         <f t="shared" si="38"/>
-        <v>1.0111413654477202</v>
+        <v>1.0630320246888854</v>
       </c>
       <c r="G33" s="100">
         <f t="shared" si="40"/>
-        <v>1.0028224792467557</v>
+        <v>1.0159681129211842</v>
       </c>
       <c r="H33" s="100">
         <f t="shared" si="42"/>
-        <v>0.60381993747049756</v>
+        <v>0.73093122893916918</v>
       </c>
       <c r="I33" s="100">
         <f t="shared" si="44"/>
-        <v>1.0040108915611792</v>
+        <v>1.0226915288879985</v>
       </c>
       <c r="J33" s="100">
         <f t="shared" si="46"/>
-        <v>0.60025470052722718</v>
+        <v>0.71076098103872587</v>
       </c>
       <c r="K33" s="100">
         <f t="shared" si="48"/>
-        <v>0.60292862823467996</v>
+        <v>0.7258886669640584</v>
       </c>
       <c r="L33" s="100">
         <f t="shared" si="50"/>
-        <v>2.7328931969099375</v>
+        <v>2.2017047322607119</v>
       </c>
       <c r="M33" s="100">
         <f t="shared" si="52"/>
-        <v>2.7340816092243609</v>
+        <v>2.2084281482275263</v>
       </c>
       <c r="N33" s="100">
         <f t="shared" ref="N33:N38" si="54">E33/$E$32</f>
-        <v>1.0090616438974789</v>
+        <v>1.0512660467469599</v>
       </c>
       <c r="O33" s="100">
         <v>0</v>
       </c>
       <c r="P33" s="100">
         <f>$O$39/P39</f>
-        <v>3.954560377762999</v>
+        <v>3.1963262655181568</v>
       </c>
       <c r="Q33" s="100">
         <f>$O$39/Q39</f>
-        <v>0.60248297361677117</v>
+        <v>0.72336738597650307</v>
       </c>
       <c r="R33" s="100">
         <f>$O$39/R39</f>
-        <v>3.9238102091272915</v>
+        <v>3.0223578773768329</v>
       </c>
       <c r="S33" s="100">
         <f>$O$39/S39</f>
-        <v>2.7361613307746024</v>
+        <v>2.2201941261694516</v>
       </c>
       <c r="T33" s="143">
         <f>$O$39/T39</f>
-        <v>2.7331902999885433</v>
+        <v>2.2033855862524154</v>
       </c>
     </row>
     <row r="34" spans="2:20" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9453,70 +9453,70 @@
       </c>
       <c r="C34" s="156"/>
       <c r="D34" s="162">
-        <v>665519926</v>
+        <v>950804258.22071528</v>
       </c>
       <c r="E34" s="132">
         <f t="shared" si="37"/>
-        <v>6.6382143996091258</v>
+        <v>7.2258902231385456</v>
       </c>
       <c r="F34" s="142">
         <f t="shared" si="38"/>
-        <v>0.25568995510436454</v>
+        <v>0.33257932275463664</v>
       </c>
       <c r="G34" s="100">
         <f t="shared" si="40"/>
-        <v>0.25358633664711638</v>
+        <v>0.31785494612405768</v>
       </c>
       <c r="H34" s="100">
         <f t="shared" si="42"/>
-        <v>0.15268952292797316</v>
+        <v>0.22867854161961712</v>
       </c>
       <c r="I34" s="100">
         <f t="shared" si="44"/>
-        <v>0.25388685356958041</v>
+        <v>0.31995842849985462</v>
       </c>
       <c r="J34" s="100">
         <f t="shared" si="46"/>
-        <v>0.1517879721605811</v>
+        <v>0.22236809449222619</v>
       </c>
       <c r="K34" s="100">
         <f t="shared" si="48"/>
-        <v>0.15246413523612512</v>
+        <v>0.22710092983776939</v>
       </c>
       <c r="L34" s="100">
         <f t="shared" si="50"/>
-        <v>0.69107383270144185</v>
+        <v>0.68882352718889095</v>
       </c>
       <c r="M34" s="100">
         <f t="shared" si="52"/>
-        <v>0.69137434962390587</v>
+        <v>0.69092700956468789</v>
       </c>
       <c r="N34" s="100">
         <f t="shared" si="54"/>
-        <v>0.25516405049005247</v>
+        <v>0.32889822859699186</v>
       </c>
       <c r="O34" s="100">
         <f>E34/$E$33</f>
-        <v>0.2528726089562644</v>
+        <v>0.31285917548153991</v>
       </c>
       <c r="P34" s="100">
         <v>0</v>
       </c>
       <c r="Q34" s="100">
         <f>$P$39/Q39</f>
-        <v>0.15235144139020113</v>
+        <v>0.22631212394684555</v>
       </c>
       <c r="R34" s="100">
         <f>$P$39/R39</f>
-        <v>0.99222412463124354</v>
+        <v>0.945572393526253</v>
       </c>
       <c r="S34" s="100">
         <f>$P$39/S39</f>
-        <v>0.69190025423821799</v>
+        <v>0.69460810372233261</v>
       </c>
       <c r="T34" s="143">
         <f>$P$39/T39</f>
-        <v>0.69114896193205788</v>
+        <v>0.6893493977828401</v>
       </c>
     </row>
     <row r="35" spans="2:20" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9525,70 +9525,70 @@
       </c>
       <c r="C35" s="156"/>
       <c r="D35" s="162">
-        <v>101392920</v>
+        <v>215178531.13563505</v>
       </c>
       <c r="E35" s="132">
         <f t="shared" si="37"/>
-        <v>43.571720352860929</v>
+        <v>31.928869285128123</v>
       </c>
       <c r="F35" s="142">
         <f t="shared" si="38"/>
-        <v>1.6782903579460973</v>
+        <v>1.4695603441588057</v>
       </c>
       <c r="G35" s="100">
         <f t="shared" si="40"/>
-        <v>1.6644826877458505</v>
+        <v>1.4044980913117717</v>
       </c>
       <c r="H35" s="100">
         <f t="shared" si="42"/>
-        <v>1.002219089853611</v>
+        <v>1.0104564334932731</v>
       </c>
       <c r="I35" s="100">
         <f t="shared" si="44"/>
-        <v>1.6664552120601714</v>
+        <v>1.4137926988613478</v>
       </c>
       <c r="J35" s="100">
         <f t="shared" si="46"/>
-        <v>0.99630151691064817</v>
+        <v>0.9825726108445445</v>
       </c>
       <c r="K35" s="100">
         <f t="shared" si="48"/>
-        <v>1.0007396966178703</v>
+        <v>1.0034854778310909</v>
       </c>
       <c r="L35" s="100">
         <f t="shared" si="50"/>
-        <v>4.5360505053015538</v>
+        <v>3.0436881382045464</v>
       </c>
       <c r="M35" s="100">
         <f t="shared" si="52"/>
-        <v>4.5380230296158741</v>
+        <v>3.0529827457541225</v>
       </c>
       <c r="N35" s="100">
         <f t="shared" si="54"/>
-        <v>1.6748384403960357</v>
+        <v>1.4532947809470469</v>
       </c>
       <c r="O35" s="100">
         <f>E35/$E$33</f>
-        <v>1.6597979424993383</v>
+        <v>1.3824233983815284</v>
       </c>
       <c r="P35" s="100">
         <f>E35/$E$34</f>
-        <v>6.5637711785004322</v>
+        <v>4.4186762183137489</v>
       </c>
       <c r="Q35" s="100">
         <v>0</v>
       </c>
       <c r="R35" s="100">
         <f>$Q$39/R39</f>
-        <v>6.5127321118673773</v>
+        <v>4.1781782479684644</v>
       </c>
       <c r="S35" s="100">
         <f>$Q$39/S39</f>
-        <v>4.5414749471659368</v>
+        <v>3.0692483089658813</v>
       </c>
       <c r="T35" s="143">
         <f>$Q$39/T39</f>
-        <v>4.5365436363801335</v>
+        <v>3.0460117900919403</v>
       </c>
     </row>
     <row r="36" spans="2:20" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9597,70 +9597,70 @@
       </c>
       <c r="C36" s="156"/>
       <c r="D36" s="162">
-        <v>660344926</v>
+        <v>899054258.22071528</v>
       </c>
       <c r="E36" s="132">
         <f t="shared" si="37"/>
-        <v>6.6902368475229261</v>
+        <v>7.6418159758149971</v>
       </c>
       <c r="F36" s="142">
         <f t="shared" si="38"/>
-        <v>0.25769374958444069</v>
+        <v>0.35172275018983284</v>
       </c>
       <c r="G36" s="100">
         <f t="shared" si="40"/>
-        <v>0.25557364546176581</v>
+        <v>0.33615083128506407</v>
       </c>
       <c r="H36" s="100">
         <f t="shared" si="42"/>
-        <v>0.15388612223545728</v>
+        <v>0.24184138960193538</v>
       </c>
       <c r="I36" s="100">
         <f t="shared" si="44"/>
-        <v>0.2558765174792908</v>
+        <v>0.33837539112860243</v>
       </c>
       <c r="J36" s="100">
         <f t="shared" si="46"/>
-        <v>0.15297750618288236</v>
+        <v>0.23516771007132023</v>
       </c>
       <c r="K36" s="100">
         <f t="shared" si="48"/>
-        <v>0.15365896822231354</v>
+        <v>0.24017296971928159</v>
       </c>
       <c r="L36" s="100">
         <f t="shared" si="50"/>
-        <v>0.69648964941088987</v>
+        <v>0.72847254414874829</v>
       </c>
       <c r="M36" s="100">
         <f t="shared" si="52"/>
-        <v>0.69679252142841475</v>
+        <v>0.7306971039922866</v>
       </c>
       <c r="N36" s="100">
         <f t="shared" si="54"/>
-        <v>0.25716372355377198</v>
+        <v>0.34782977046364061</v>
       </c>
       <c r="O36" s="100">
         <f>E36/$E$33</f>
-        <v>0.25485432442014405</v>
+        <v>0.3308675016566604</v>
       </c>
       <c r="P36" s="100">
         <f>E36/$E$34</f>
-        <v>1.0078368134534588</v>
+        <v>1.0575604859515559</v>
       </c>
       <c r="Q36" s="100">
         <f>E36/$E$35</f>
-        <v>0.15354539121574171</v>
+        <v>0.23933875977795474</v>
       </c>
       <c r="R36" s="100">
         <v>0</v>
       </c>
       <c r="S36" s="100">
         <f>$R$39/S39</f>
-        <v>0.69732254745908362</v>
+        <v>0.73459008371847878</v>
       </c>
       <c r="T36" s="143">
         <f>$R$39/T39</f>
-        <v>0.69656536741527109</v>
+        <v>0.72902868410963284</v>
       </c>
     </row>
     <row r="37" spans="2:20" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9669,70 +9669,70 @@
       </c>
       <c r="C37" s="156"/>
       <c r="D37" s="162">
-        <v>460473406</v>
+        <v>660436342.81381011</v>
       </c>
       <c r="E37" s="132">
         <f t="shared" si="37"/>
-        <v>9.5941782922421357</v>
+        <v>10.402830292960521</v>
       </c>
       <c r="F37" s="142">
         <f t="shared" si="38"/>
-        <v>0.36954742181136946</v>
+        <v>0.47880138595040661</v>
       </c>
       <c r="G37" s="100">
         <f t="shared" si="40"/>
-        <v>0.36650707250615899</v>
+        <v>0.45760327934659284</v>
       </c>
       <c r="H37" s="100">
         <f t="shared" si="42"/>
-        <v>0.22068140890638099</v>
+        <v>0.32921951298027274</v>
       </c>
       <c r="I37" s="100">
         <f t="shared" si="44"/>
-        <v>0.36694140812118903</v>
+        <v>0.46063158028999474</v>
       </c>
       <c r="J37" s="100">
         <f t="shared" si="46"/>
-        <v>0.21937840206129078</v>
+        <v>0.32013461015006689</v>
       </c>
       <c r="K37" s="100">
         <f t="shared" si="48"/>
-        <v>0.22035565719510844</v>
+        <v>0.32694828727272129</v>
       </c>
       <c r="L37" s="100">
         <f t="shared" si="50"/>
-        <v>0.99880557705866724</v>
+        <v>0.99167217240564465</v>
       </c>
       <c r="M37" s="100">
         <f t="shared" si="52"/>
-        <v>0.99923991267369716</v>
+        <v>0.99470047334904654</v>
       </c>
       <c r="N37" s="100">
         <f t="shared" si="54"/>
-        <v>0.36878733448506684</v>
+        <v>0.4735018592994531</v>
       </c>
       <c r="O37" s="100">
         <f>E37/$E$33</f>
-        <v>0.36547552542046263</v>
+        <v>0.45041106460601321</v>
       </c>
       <c r="P37" s="100">
         <f>E37/$E$34</f>
-        <v>1.4452950318698752</v>
+        <v>1.4396607160801953</v>
       </c>
       <c r="Q37" s="100">
         <f>E37/$E$35</f>
-        <v>0.22019278133947218</v>
+        <v>0.32581267441894562</v>
       </c>
       <c r="R37" s="100">
         <f>E37/$E$36</f>
-        <v>1.4340565978309721</v>
+        <v>1.3613034291696697</v>
       </c>
       <c r="S37" s="100">
         <v>0</v>
       </c>
       <c r="T37" s="143">
         <f>$S$39/T39</f>
-        <v>0.99891416096242469</v>
+        <v>0.99242924764149509</v>
       </c>
     </row>
     <row r="38" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9741,67 +9741,67 @@
       </c>
       <c r="C38" s="156"/>
       <c r="D38" s="162">
-        <v>459973406</v>
+        <v>655436342.81381011</v>
       </c>
       <c r="E38" s="132">
         <f t="shared" si="37"/>
-        <v>9.6046073498431781</v>
+        <v>10.482188345096453</v>
       </c>
       <c r="F38" s="164">
         <f t="shared" si="38"/>
-        <v>0.36994912701539973</v>
+        <v>0.48245392514204571</v>
       </c>
       <c r="G38" s="146">
         <f t="shared" si="40"/>
-        <v>0.36690547279161612</v>
+        <v>0.46109410865720207</v>
       </c>
       <c r="H38" s="146">
         <f t="shared" si="42"/>
-        <v>0.22092129387149831</v>
+        <v>0.33173096597330426</v>
       </c>
       <c r="I38" s="146">
         <f t="shared" si="44"/>
-        <v>0.36734028053787093</v>
+        <v>0.46414551101217966</v>
       </c>
       <c r="J38" s="146">
         <f t="shared" si="46"/>
-        <v>0.21961687063273394</v>
+        <v>0.32257675890837134</v>
       </c>
       <c r="K38" s="146">
         <f t="shared" si="48"/>
-        <v>0.2205951880618072</v>
+        <v>0.32944241420707104</v>
       </c>
       <c r="L38" s="146">
         <f t="shared" si="50"/>
-        <v>0.99989129806343635</v>
+        <v>0.99923714941125563</v>
       </c>
       <c r="M38" s="146">
         <f t="shared" si="52"/>
-        <v>1.0003261058096911</v>
+        <v>1.0022885517662332</v>
       </c>
       <c r="N38" s="146">
         <f t="shared" si="54"/>
-        <v>0.3691882134594538</v>
+        <v>0.47711397102083475</v>
       </c>
       <c r="O38" s="146">
         <f>E38/$E$33</f>
-        <v>0.36587280439426106</v>
+        <v>0.45384702806413019</v>
       </c>
       <c r="P38" s="146">
         <f>E38/$E$34</f>
-        <v>1.4468660955585768</v>
+        <v>1.4506431763287353</v>
       </c>
       <c r="Q38" s="146">
         <f>E38/$E$35</f>
-        <v>0.22043213515696167</v>
+        <v>0.32829813832395449</v>
       </c>
       <c r="R38" s="146">
         <f>E38/$E$36</f>
-        <v>1.435615445124234</v>
+        <v>1.3716881403936885</v>
       </c>
       <c r="S38" s="146">
         <f>E38/$E$37</f>
-        <v>1.0010870193656372</v>
+        <v>1.0076285058874441</v>
       </c>
       <c r="T38" s="147">
         <v>0</v>
@@ -9814,68 +9814,68 @@
       <c r="C39" s="157"/>
       <c r="D39" s="163">
         <f>SUM(D24:D38)</f>
-        <v>4417863956</v>
+        <v>6870407193.5955639</v>
       </c>
       <c r="E39" s="134"/>
       <c r="F39" s="144">
         <f>E24</f>
-        <v>25.961967871986278</v>
+        <v>21.726817419943785</v>
       </c>
       <c r="G39" s="145">
         <f>E25</f>
-        <v>26.177334659976882</v>
+        <v>22.733294892061569</v>
       </c>
       <c r="H39" s="145">
         <f>E26</f>
-        <v>43.47524487806875</v>
+        <v>31.598462068024116</v>
       </c>
       <c r="I39" s="145">
         <f>E27</f>
-        <v>26.146349471339807</v>
+        <v>22.583840835253472</v>
       </c>
       <c r="J39" s="145">
         <f>E28</f>
-        <v>43.733467844121122</v>
+        <v>32.495175351656201</v>
       </c>
       <c r="K39" s="145">
         <f>E29</f>
-        <v>43.539514321373694</v>
+        <v>31.817968461425473</v>
       </c>
       <c r="L39" s="145">
         <f>E30</f>
-        <v>9.6056515027634841</v>
+        <v>10.490190793319178</v>
       </c>
       <c r="M39" s="145">
         <f>E31</f>
-        <v>9.6014762526555764</v>
+        <v>10.458254089228832</v>
       </c>
       <c r="N39" s="145">
         <f>E32</f>
-        <v>26.015476658487653</v>
+        <v>21.969988266469596</v>
       </c>
       <c r="O39" s="145">
         <f>E33</f>
-        <v>26.251219643790044</v>
+        <v>23.096302711968587</v>
       </c>
       <c r="P39" s="145">
         <f>E34</f>
-        <v>6.6382143996091258</v>
+        <v>7.2258902231385456</v>
       </c>
       <c r="Q39" s="145">
         <f>E35</f>
-        <v>43.571720352860929</v>
+        <v>31.928869285128123</v>
       </c>
       <c r="R39" s="145">
         <f>E36</f>
-        <v>6.6902368475229261</v>
+        <v>7.6418159758149971</v>
       </c>
       <c r="S39" s="145">
         <f>E37</f>
-        <v>9.5941782922421357</v>
+        <v>10.402830292960521</v>
       </c>
       <c r="T39" s="138">
         <f>E38</f>
-        <v>9.6046073498431781</v>
+        <v>10.482188345096453</v>
       </c>
     </row>
   </sheetData>
